--- a/PythonResources/Data/Consumption/Sympheny/base_1359_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/base_1359_hea.xlsx
@@ -439,7 +439,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>8.476435036994358</v>
+        <v>8.476435036994356</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -599,7 +599,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>221.6088896652016</v>
+        <v>221.6088896652015</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>26.65214401979754</v>
+        <v>26.65214401979753</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -759,7 +759,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>37.14880564759615</v>
+        <v>37.14880564759614</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -863,7 +863,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>6.250824262296236</v>
+        <v>6.250824262296235</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -991,7 +991,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>49.35462826576386</v>
+        <v>49.35462826576385</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1087,7 +1087,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.6556761119554815</v>
+        <v>0.6556761119554814</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1207,7 +1207,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>59.4714405203535</v>
+        <v>59.47144052035349</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1223,7 +1223,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>56.04719850463434</v>
+        <v>56.04719850463433</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1295,7 +1295,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>17.00389374181966</v>
+        <v>17.00389374181965</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1351,7 +1351,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>54.64368130048516</v>
+        <v>54.64368130048515</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1583,7 +1583,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>43.57145745985953</v>
+        <v>43.57145745985952</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1599,7 +1599,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>22.05828479588482</v>
+        <v>22.05828479588481</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1647,7 +1647,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>63.0530616838338</v>
+        <v>63.05306168383379</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>95.22346959768969</v>
+        <v>95.22346959768966</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1967,7 +1967,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>87.81990901902677</v>
+        <v>87.81990901902675</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2095,7 +2095,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>65.86478522875075</v>
+        <v>65.86478522875073</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2119,7 +2119,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>71.28865094125626</v>
+        <v>71.28865094125625</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>13.61317905292336</v>
+        <v>13.61317905292335</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2215,7 +2215,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>31.41838762865087</v>
+        <v>31.41838762865086</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>22.16103550203949</v>
+        <v>22.16103550203948</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2303,7 +2303,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>35.97945220333738</v>
+        <v>35.97945220333737</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -2311,7 +2311,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>44.77129029213908</v>
+        <v>44.77129029213907</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>12.90822597652736</v>
+        <v>12.90822597652735</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2423,7 +2423,7 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>0.7382049164425163</v>
+        <v>0.7382049164425162</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -2447,7 +2447,7 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>3.598853740553588</v>
+        <v>3.598853740553587</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -2471,7 +2471,7 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>14.79563277261029</v>
+        <v>14.79563277261028</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>56.8572468554943</v>
+        <v>56.85724685549429</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2559,7 +2559,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>15.15288636873847</v>
+        <v>15.15288636873846</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>0.4398087770086943</v>
+        <v>0.4398087770086942</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2919,7 +2919,7 @@
         <v>322</v>
       </c>
       <c r="B322">
-        <v>8.78902460683055</v>
+        <v>8.789024606830548</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -2943,7 +2943,7 @@
         <v>325</v>
       </c>
       <c r="B325">
-        <v>4.151615026572752</v>
+        <v>4.151615026572751</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -3047,7 +3047,7 @@
         <v>338</v>
       </c>
       <c r="B338">
-        <v>23.35421562174142</v>
+        <v>23.35421562174141</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>29.98790788894484</v>
+        <v>29.98790788894483</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3143,7 +3143,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>16.94126446085773</v>
+        <v>16.94126446085772</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>25.88796128648808</v>
+        <v>25.88796128648807</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3351,7 +3351,7 @@
         <v>376</v>
       </c>
       <c r="B376">
-        <v>64.16790391490156</v>
+        <v>64.16790391490154</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -3487,7 +3487,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>199.1194973714459</v>
+        <v>199.1194973714458</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -3527,7 +3527,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>98.39068831250285</v>
+        <v>98.39068831250282</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -3575,7 +3575,7 @@
         <v>404</v>
       </c>
       <c r="B404">
-        <v>24.00776403795622</v>
+        <v>24.00776403795621</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -3583,7 +3583,7 @@
         <v>405</v>
       </c>
       <c r="B405">
-        <v>49.61165156666986</v>
+        <v>49.61165156666985</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -3679,7 +3679,7 @@
         <v>417</v>
       </c>
       <c r="B417">
-        <v>220.9559273910641</v>
+        <v>220.955927391064</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -3823,7 +3823,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>137.5435137224653</v>
+        <v>137.5435137224652</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -3959,7 +3959,7 @@
         <v>452</v>
       </c>
       <c r="B452">
-        <v>22.6120718305393</v>
+        <v>22.61207183053929</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -3975,7 +3975,7 @@
         <v>454</v>
       </c>
       <c r="B454">
-        <v>65.34223956681757</v>
+        <v>65.34223956681755</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -3983,7 +3983,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>84.46512483947035</v>
+        <v>84.46512483947033</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -3991,7 +3991,7 @@
         <v>456</v>
       </c>
       <c r="B456">
-        <v>93.76426889619484</v>
+        <v>93.76426889619482</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -4079,7 +4079,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>75.1838581161042</v>
+        <v>75.18385811610419</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -4127,7 +4127,7 @@
         <v>473</v>
       </c>
       <c r="B473">
-        <v>60.32457031389667</v>
+        <v>60.32457031389666</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -4135,7 +4135,7 @@
         <v>474</v>
       </c>
       <c r="B474">
-        <v>80.59248413459933</v>
+        <v>80.59248413459932</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -4231,7 +4231,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>142.9925835442957</v>
+        <v>142.9925835442956</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -4247,7 +4247,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>150.7009380031664</v>
+        <v>150.7009380031663</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -4319,7 +4319,7 @@
         <v>497</v>
       </c>
       <c r="B497">
-        <v>98.10992625746526</v>
+        <v>98.10992625746525</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -4375,7 +4375,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>177.1611497997446</v>
+        <v>177.1611497997445</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -4543,7 +4543,7 @@
         <v>525</v>
       </c>
       <c r="B525">
-        <v>66.04824769895275</v>
+        <v>66.04824769895274</v>
       </c>
     </row>
     <row r="526" spans="1:2">
@@ -4607,7 +4607,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>155.7253478899765</v>
+        <v>155.7253478899764</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -4735,7 +4735,7 @@
         <v>549</v>
       </c>
       <c r="B549">
-        <v>66.22379725111089</v>
+        <v>66.22379725111088</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -4807,7 +4807,7 @@
         <v>558</v>
       </c>
       <c r="B558">
-        <v>171.5796118684393</v>
+        <v>171.5796118684392</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -4823,7 +4823,7 @@
         <v>560</v>
       </c>
       <c r="B560">
-        <v>267.6225080902261</v>
+        <v>267.622508090226</v>
       </c>
     </row>
     <row r="561" spans="1:2">
@@ -4911,7 +4911,7 @@
         <v>571</v>
       </c>
       <c r="B571">
-        <v>6.884912761543922</v>
+        <v>6.884912761543921</v>
       </c>
     </row>
     <row r="572" spans="1:2">
@@ -5239,7 +5239,7 @@
         <v>612</v>
       </c>
       <c r="B612">
-        <v>112.281083260896</v>
+        <v>112.2810832608959</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -5271,7 +5271,7 @@
         <v>616</v>
       </c>
       <c r="B616">
-        <v>52.7099985873976</v>
+        <v>52.70999858739759</v>
       </c>
     </row>
     <row r="617" spans="1:2">
@@ -5399,7 +5399,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>138.9385318664933</v>
+        <v>138.9385318664932</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -5471,7 +5471,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>84.46981397608893</v>
+        <v>84.46981397608891</v>
       </c>
     </row>
     <row r="642" spans="1:2">
@@ -5495,7 +5495,7 @@
         <v>644</v>
       </c>
       <c r="B644">
-        <v>139.3980672551143</v>
+        <v>139.3980672551142</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -5567,7 +5567,7 @@
         <v>653</v>
       </c>
       <c r="B653">
-        <v>187.3298356281773</v>
+        <v>187.3298356281772</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -5631,7 +5631,7 @@
         <v>661</v>
       </c>
       <c r="B661">
-        <v>91.33822683815622</v>
+        <v>91.3382268381562</v>
       </c>
     </row>
     <row r="662" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>71.2959777172228</v>
+        <v>71.29597771722278</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -5847,7 +5847,7 @@
         <v>688</v>
       </c>
       <c r="B688">
-        <v>83.87429362552908</v>
+        <v>83.87429362552906</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -5887,7 +5887,7 @@
         <v>693</v>
       </c>
       <c r="B693">
-        <v>32.75127471248266</v>
+        <v>32.75127471248265</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -5895,7 +5895,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>45.11799333087545</v>
+        <v>45.11799333087544</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -6063,7 +6063,7 @@
         <v>715</v>
       </c>
       <c r="B715">
-        <v>2.197874531599213</v>
+        <v>2.197874531599212</v>
       </c>
     </row>
     <row r="716" spans="1:2">
@@ -6215,7 +6215,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>56.12339697468629</v>
+        <v>56.12339697468628</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -6287,7 +6287,7 @@
         <v>743</v>
       </c>
       <c r="B743">
-        <v>61.53993591122527</v>
+        <v>61.53993591122526</v>
       </c>
     </row>
     <row r="744" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>79.30092006721878</v>
+        <v>79.30092006721877</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6455,7 +6455,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>7.297615398186829</v>
+        <v>7.297615398186828</v>
       </c>
     </row>
     <row r="765" spans="1:2">
@@ -6575,7 +6575,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>139.1583351454893</v>
+        <v>139.1583351454892</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -6599,7 +6599,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>118.2342352692239</v>
+        <v>118.2342352692238</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -6639,7 +6639,7 @@
         <v>787</v>
       </c>
       <c r="B787">
-        <v>3.984154235081659</v>
+        <v>3.984154235081657</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -7391,7 +7391,7 @@
         <v>881</v>
       </c>
       <c r="B881">
-        <v>82.13433086899667</v>
+        <v>82.13433086899666</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -7439,7 +7439,7 @@
         <v>887</v>
       </c>
       <c r="B887">
-        <v>95.3028918491669</v>
+        <v>95.30289184916688</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -7655,7 +7655,7 @@
         <v>914</v>
       </c>
       <c r="B914">
-        <v>57.56061734828153</v>
+        <v>57.56061734828152</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -7695,7 +7695,7 @@
         <v>919</v>
       </c>
       <c r="B919">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -7767,7 +7767,7 @@
         <v>928</v>
       </c>
       <c r="B928">
-        <v>71.33700766263539</v>
+        <v>71.33700766263537</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -7807,7 +7807,7 @@
         <v>933</v>
       </c>
       <c r="B933">
-        <v>3.988433072246115</v>
+        <v>3.988433072246114</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -7815,7 +7815,7 @@
         <v>934</v>
       </c>
       <c r="B934">
-        <v>10.92196631910396</v>
+        <v>10.92196631910395</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -8007,7 +8007,7 @@
         <v>958</v>
       </c>
       <c r="B958">
-        <v>6.579620660570399</v>
+        <v>6.579620660570398</v>
       </c>
     </row>
     <row r="959" spans="1:2">
@@ -8183,7 +8183,7 @@
         <v>980</v>
       </c>
       <c r="B980">
-        <v>35.99469189734777</v>
+        <v>35.99469189734776</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -8207,7 +8207,7 @@
         <v>983</v>
       </c>
       <c r="B983">
-        <v>37.58196464273762</v>
+        <v>37.58196464273761</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -8271,7 +8271,7 @@
         <v>991</v>
       </c>
       <c r="B991">
-        <v>33.7222190635677</v>
+        <v>33.72221906356769</v>
       </c>
     </row>
     <row r="992" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>31.96115519225168</v>
+        <v>31.96115519225167</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8351,7 +8351,7 @@
         <v>1001</v>
       </c>
       <c r="B1001">
-        <v>6.632725132775835</v>
+        <v>6.632725132775834</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -8407,7 +8407,7 @@
         <v>1008</v>
       </c>
       <c r="B1008">
-        <v>74.9473497879045</v>
+        <v>74.94734978790449</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -8415,7 +8415,7 @@
         <v>1009</v>
       </c>
       <c r="B1009">
-        <v>76.32771437999943</v>
+        <v>76.32771437999942</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
@@ -8423,7 +8423,7 @@
         <v>1010</v>
       </c>
       <c r="B1010">
-        <v>83.36493616033566</v>
+        <v>83.36493616033565</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
@@ -8599,7 +8599,7 @@
         <v>1032</v>
       </c>
       <c r="B1032">
-        <v>86.66931212124233</v>
+        <v>86.66931212124231</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -8759,7 +8759,7 @@
         <v>1052</v>
       </c>
       <c r="B1052">
-        <v>8.101860942481293</v>
+        <v>8.101860942481292</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
@@ -8791,7 +8791,7 @@
         <v>1056</v>
       </c>
       <c r="B1056">
-        <v>52.87822136358921</v>
+        <v>52.8782213635892</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
@@ -8815,7 +8815,7 @@
         <v>1059</v>
       </c>
       <c r="B1059">
-        <v>67.43183607247296</v>
+        <v>67.43183607247295</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -8847,7 +8847,7 @@
         <v>1063</v>
       </c>
       <c r="B1063">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>57.01052300871418</v>
+        <v>57.01052300871417</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -8951,7 +8951,7 @@
         <v>1076</v>
       </c>
       <c r="B1076">
-        <v>0.8967299719648245</v>
+        <v>0.8967299719648244</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
@@ -9055,7 +9055,7 @@
         <v>1089</v>
       </c>
       <c r="B1089">
-        <v>141.616321946742</v>
+        <v>141.6163219467419</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -9183,7 +9183,7 @@
         <v>1105</v>
       </c>
       <c r="B1105">
-        <v>42.70748403788589</v>
+        <v>42.70748403788588</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
@@ -9199,7 +9199,7 @@
         <v>1107</v>
       </c>
       <c r="B1107">
-        <v>56.84493787187052</v>
+        <v>56.84493787187051</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -9223,7 +9223,7 @@
         <v>1110</v>
       </c>
       <c r="B1110">
-        <v>73.61680727238199</v>
+        <v>73.61680727238198</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -9303,7 +9303,7 @@
         <v>1120</v>
       </c>
       <c r="B1120">
-        <v>118.4534524061426</v>
+        <v>118.4534524061425</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -9359,7 +9359,7 @@
         <v>1127</v>
       </c>
       <c r="B1127">
-        <v>57.73118469278243</v>
+        <v>57.73118469278242</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -9655,7 +9655,7 @@
         <v>1164</v>
       </c>
       <c r="B1164">
-        <v>70.45076084172348</v>
+        <v>70.45076084172346</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -9703,7 +9703,7 @@
         <v>1170</v>
       </c>
       <c r="B1170">
-        <v>70.81182436135425</v>
+        <v>70.81182436135424</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>27.9723411276553</v>
+        <v>27.97234112765529</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9871,7 +9871,7 @@
         <v>1191</v>
       </c>
       <c r="B1191">
-        <v>29.7751383148767</v>
+        <v>29.77513831487669</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -10071,7 +10071,7 @@
         <v>1216</v>
       </c>
       <c r="B1216">
-        <v>77.67027280810706</v>
+        <v>77.67027280810704</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -10079,7 +10079,7 @@
         <v>1217</v>
       </c>
       <c r="B1217">
-        <v>79.31615976122917</v>
+        <v>79.31615976122916</v>
       </c>
     </row>
     <row r="1218" spans="1:2">
@@ -10399,7 +10399,7 @@
         <v>1257</v>
       </c>
       <c r="B1257">
-        <v>79.72880378366435</v>
+        <v>79.72880378366433</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
@@ -10415,7 +10415,7 @@
         <v>1259</v>
       </c>
       <c r="B1259">
-        <v>45.39289396513979</v>
+        <v>45.39289396513978</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -10423,7 +10423,7 @@
         <v>1260</v>
       </c>
       <c r="B1260">
-        <v>40.17300569554257</v>
+        <v>40.17300569554256</v>
       </c>
     </row>
     <row r="1261" spans="1:2">
@@ -10535,7 +10535,7 @@
         <v>1274</v>
       </c>
       <c r="B1274">
-        <v>2.706352783676647</v>
+        <v>2.706352783676646</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -10607,7 +10607,7 @@
         <v>1283</v>
       </c>
       <c r="B1283">
-        <v>46.45293191197788</v>
+        <v>46.45293191197787</v>
       </c>
     </row>
     <row r="1284" spans="1:2">
@@ -10695,7 +10695,7 @@
         <v>1294</v>
       </c>
       <c r="B1294">
-        <v>0.4273649807071336</v>
+        <v>0.4273649807071335</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -10751,7 +10751,7 @@
         <v>1301</v>
       </c>
       <c r="B1301">
-        <v>7.044489942095025</v>
+        <v>7.044489942095024</v>
       </c>
     </row>
     <row r="1302" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>0.6497326312914293</v>
+        <v>0.6497326312914292</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10823,7 +10823,7 @@
         <v>1310</v>
       </c>
       <c r="B1310">
-        <v>0.624654542513178</v>
+        <v>0.6246545425131779</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -10879,7 +10879,7 @@
         <v>1317</v>
       </c>
       <c r="B1317">
-        <v>0.2317928151876446</v>
+        <v>0.2317928151876445</v>
       </c>
     </row>
     <row r="1318" spans="1:2">
@@ -10967,7 +10967,7 @@
         <v>1328</v>
       </c>
       <c r="B1328">
-        <v>23.78661263218237</v>
+        <v>23.78661263218236</v>
       </c>
     </row>
     <row r="1329" spans="1:2">
@@ -10983,7 +10983,7 @@
         <v>1330</v>
       </c>
       <c r="B1330">
-        <v>4.118175621061492</v>
+        <v>4.118175621061491</v>
       </c>
     </row>
     <row r="1331" spans="1:2">
@@ -11007,7 +11007,7 @@
         <v>1333</v>
       </c>
       <c r="B1333">
-        <v>0.9997884027100866</v>
+        <v>0.9997884027100864</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
@@ -11031,7 +11031,7 @@
         <v>1336</v>
       </c>
       <c r="B1336">
-        <v>0.5371200846858074</v>
+        <v>0.5371200846858073</v>
       </c>
     </row>
     <row r="1337" spans="1:2">
@@ -11095,7 +11095,7 @@
         <v>1344</v>
       </c>
       <c r="B1344">
-        <v>0.09738486850781709</v>
+        <v>0.097384868507817</v>
       </c>
     </row>
     <row r="1345" spans="1:2">
@@ -11175,7 +11175,7 @@
         <v>1354</v>
       </c>
       <c r="B1354">
-        <v>63.41031527996198</v>
+        <v>63.41031527996197</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -11183,7 +11183,7 @@
         <v>1355</v>
       </c>
       <c r="B1355">
-        <v>51.8767976244834</v>
+        <v>51.87679762448339</v>
       </c>
     </row>
     <row r="1356" spans="1:2">
@@ -11295,7 +11295,7 @@
         <v>1369</v>
       </c>
       <c r="B1369">
-        <v>7.413993907639249</v>
+        <v>7.413993907639248</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -11423,7 +11423,7 @@
         <v>1385</v>
       </c>
       <c r="B1385">
-        <v>2.827537658163113</v>
+        <v>2.827537658163112</v>
       </c>
     </row>
     <row r="1386" spans="1:2">
@@ -11543,7 +11543,7 @@
         <v>1400</v>
       </c>
       <c r="B1400">
-        <v>88.6021156212139</v>
+        <v>88.60211562121388</v>
       </c>
     </row>
     <row r="1401" spans="1:2">
@@ -11559,7 +11559,7 @@
         <v>1402</v>
       </c>
       <c r="B1402">
-        <v>15.49566225555678</v>
+        <v>15.49566225555677</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -11599,7 +11599,7 @@
         <v>1407</v>
       </c>
       <c r="B1407">
-        <v>0.6338862802310103</v>
+        <v>0.6338862802310102</v>
       </c>
     </row>
     <row r="1408" spans="1:2">
@@ -11711,7 +11711,7 @@
         <v>1421</v>
       </c>
       <c r="B1421">
-        <v>49.56593248463869</v>
+        <v>49.56593248463868</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>75.6448588599185</v>
+        <v>75.64485885991849</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11783,7 +11783,7 @@
         <v>1430</v>
       </c>
       <c r="B1430">
-        <v>74.093633852284</v>
+        <v>74.09363385228399</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
@@ -11879,7 +11879,7 @@
         <v>1442</v>
       </c>
       <c r="B1442">
-        <v>55.1149395306526</v>
+        <v>55.11493953065259</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
@@ -11887,7 +11887,7 @@
         <v>1443</v>
       </c>
       <c r="B1443">
-        <v>62.30162754070611</v>
+        <v>62.3016275407061</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -12015,7 +12015,7 @@
         <v>1459</v>
       </c>
       <c r="B1459">
-        <v>2.087832218002651</v>
+        <v>2.08783221800265</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -12159,7 +12159,7 @@
         <v>1477</v>
       </c>
       <c r="B1477">
-        <v>37.21005749467637</v>
+        <v>37.21005749467636</v>
       </c>
     </row>
     <row r="1478" spans="1:2">
@@ -12415,7 +12415,7 @@
         <v>1509</v>
       </c>
       <c r="B1509">
-        <v>71.83376307316637</v>
+        <v>71.83376307316635</v>
       </c>
     </row>
     <row r="1510" spans="1:2">
@@ -12439,7 +12439,7 @@
         <v>1512</v>
       </c>
       <c r="B1512">
-        <v>93.76368275411753</v>
+        <v>93.7636827541175</v>
       </c>
     </row>
     <row r="1513" spans="1:2">
@@ -12527,7 +12527,7 @@
         <v>1523</v>
       </c>
       <c r="B1523">
-        <v>86.74023531259837</v>
+        <v>86.74023531259836</v>
       </c>
     </row>
     <row r="1524" spans="1:2">
@@ -12583,7 +12583,7 @@
         <v>1530</v>
       </c>
       <c r="B1530">
-        <v>60.17188030275411</v>
+        <v>60.1718803027541</v>
       </c>
     </row>
     <row r="1531" spans="1:2">
@@ -12647,7 +12647,7 @@
         <v>1538</v>
       </c>
       <c r="B1538">
-        <v>60.13847020434672</v>
+        <v>60.13847020434671</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -12727,7 +12727,7 @@
         <v>1548</v>
       </c>
       <c r="B1548">
-        <v>44.87855429228913</v>
+        <v>44.87855429228912</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>15.43915815930287</v>
+        <v>15.43915815930286</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -13079,7 +13079,7 @@
         <v>1592</v>
       </c>
       <c r="B1592">
-        <v>87.82254665837472</v>
+        <v>87.8225466583747</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -13087,7 +13087,7 @@
         <v>1593</v>
       </c>
       <c r="B1593">
-        <v>65.68659803724465</v>
+        <v>65.68659803724464</v>
       </c>
     </row>
     <row r="1594" spans="1:2">
@@ -13151,7 +13151,7 @@
         <v>1601</v>
       </c>
       <c r="B1601">
-        <v>63.36928533454939</v>
+        <v>63.36928533454938</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -13175,7 +13175,7 @@
         <v>1604</v>
       </c>
       <c r="B1604">
-        <v>4.371975140542217</v>
+        <v>4.371975140542216</v>
       </c>
     </row>
     <row r="1605" spans="1:2">
@@ -13271,7 +13271,7 @@
         <v>1616</v>
       </c>
       <c r="B1616">
-        <v>240.6001860414954</v>
+        <v>240.6001860414953</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -13279,7 +13279,7 @@
         <v>1617</v>
       </c>
       <c r="B1617">
-        <v>160.2409864536705</v>
+        <v>160.2409864536704</v>
       </c>
     </row>
     <row r="1618" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>98.509968225238</v>
+        <v>98.50996822523798</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13335,7 +13335,7 @@
         <v>1624</v>
       </c>
       <c r="B1624">
-        <v>51.30618831220976</v>
+        <v>51.30618831220975</v>
       </c>
     </row>
     <row r="1625" spans="1:2">
@@ -13391,7 +13391,7 @@
         <v>1631</v>
       </c>
       <c r="B1631">
-        <v>42.60842602681835</v>
+        <v>42.60842602681834</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -13463,7 +13463,7 @@
         <v>1640</v>
       </c>
       <c r="B1640">
-        <v>91.13014640070666</v>
+        <v>91.13014640070664</v>
       </c>
     </row>
     <row r="1641" spans="1:2">
@@ -13511,7 +13511,7 @@
         <v>1646</v>
       </c>
       <c r="B1646">
-        <v>25.679558470896</v>
+        <v>25.67955847089599</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -13567,7 +13567,7 @@
         <v>1653</v>
       </c>
       <c r="B1653">
-        <v>84.61752177957425</v>
+        <v>84.61752177957423</v>
       </c>
     </row>
     <row r="1654" spans="1:2">
@@ -13807,7 +13807,7 @@
         <v>1683</v>
       </c>
       <c r="B1683">
-        <v>92.68606054495974</v>
+        <v>92.68606054495972</v>
       </c>
     </row>
     <row r="1684" spans="1:2">
@@ -13863,7 +13863,7 @@
         <v>1690</v>
       </c>
       <c r="B1690">
-        <v>94.06232214251342</v>
+        <v>94.06232214251339</v>
       </c>
     </row>
     <row r="1691" spans="1:2">
@@ -13871,7 +13871,7 @@
         <v>1691</v>
       </c>
       <c r="B1691">
-        <v>77.2734546217596</v>
+        <v>77.27345462175958</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -13879,7 +13879,7 @@
         <v>1692</v>
       </c>
       <c r="B1692">
-        <v>61.70845175845555</v>
+        <v>61.70845175845554</v>
       </c>
     </row>
     <row r="1693" spans="1:2">
@@ -13903,7 +13903,7 @@
         <v>1695</v>
       </c>
       <c r="B1695">
-        <v>33.64807209078638</v>
+        <v>33.64807209078637</v>
       </c>
     </row>
     <row r="1696" spans="1:2">
@@ -13935,7 +13935,7 @@
         <v>1699</v>
       </c>
       <c r="B1699">
-        <v>0.9336539921257676</v>
+        <v>0.9336539921257674</v>
       </c>
     </row>
     <row r="1700" spans="1:2">
@@ -13951,7 +13951,7 @@
         <v>1701</v>
       </c>
       <c r="B1701">
-        <v>1.402895893547221</v>
+        <v>1.40289589354722</v>
       </c>
     </row>
     <row r="1702" spans="1:2">
@@ -13959,7 +13959,7 @@
         <v>1702</v>
       </c>
       <c r="B1702">
-        <v>7.841555245942286</v>
+        <v>7.841555245942285</v>
       </c>
     </row>
     <row r="1703" spans="1:2">
@@ -14007,7 +14007,7 @@
         <v>1708</v>
       </c>
       <c r="B1708">
-        <v>56.19519937915832</v>
+        <v>56.19519937915831</v>
       </c>
     </row>
     <row r="1709" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14039,7 +14039,7 @@
         <v>1712</v>
       </c>
       <c r="B1712">
-        <v>127.1837455768254</v>
+        <v>127.1837455768253</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
@@ -14063,7 +14063,7 @@
         <v>1715</v>
       </c>
       <c r="B1715">
-        <v>74.93474773324206</v>
+        <v>74.93474773324205</v>
       </c>
     </row>
     <row r="1716" spans="1:2">
@@ -14215,7 +14215,7 @@
         <v>1734</v>
       </c>
       <c r="B1734">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1735" spans="1:2">
@@ -14303,7 +14303,7 @@
         <v>1745</v>
       </c>
       <c r="B1745">
-        <v>30.58284209742737</v>
+        <v>30.58284209742736</v>
       </c>
     </row>
     <row r="1746" spans="1:2">
@@ -14423,7 +14423,7 @@
         <v>1760</v>
       </c>
       <c r="B1760">
-        <v>126.8804170518109</v>
+        <v>126.8804170518108</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -14447,7 +14447,7 @@
         <v>1763</v>
       </c>
       <c r="B1763">
-        <v>53.9071937803292</v>
+        <v>53.90719378032919</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -14559,7 +14559,7 @@
         <v>1777</v>
       </c>
       <c r="B1777">
-        <v>30.37622701517112</v>
+        <v>30.37622701517111</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -14583,7 +14583,7 @@
         <v>1780</v>
       </c>
       <c r="B1780">
-        <v>55.23978779312233</v>
+        <v>55.23978779312232</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
@@ -14599,7 +14599,7 @@
         <v>1782</v>
       </c>
       <c r="B1782">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="1783" spans="1:2">
@@ -14623,7 +14623,7 @@
         <v>1785</v>
       </c>
       <c r="B1785">
-        <v>79.59164653757084</v>
+        <v>79.59164653757082</v>
       </c>
     </row>
     <row r="1786" spans="1:2">
@@ -14687,7 +14687,7 @@
         <v>1793</v>
       </c>
       <c r="B1793">
-        <v>57.12980292144935</v>
+        <v>57.12980292144934</v>
       </c>
     </row>
     <row r="1794" spans="1:2">
@@ -14775,7 +14775,7 @@
         <v>1804</v>
       </c>
       <c r="B1804">
-        <v>45.44916360456277</v>
+        <v>45.44916360456276</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -14823,7 +14823,7 @@
         <v>1810</v>
       </c>
       <c r="B1810">
-        <v>48.63865571831419</v>
+        <v>48.63865571831418</v>
       </c>
     </row>
     <row r="1811" spans="1:2">
@@ -14839,7 +14839,7 @@
         <v>1812</v>
       </c>
       <c r="B1812">
-        <v>44.08579713271019</v>
+        <v>44.08579713271018</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -15079,7 +15079,7 @@
         <v>1842</v>
       </c>
       <c r="B1842">
-        <v>0.9686671891146384</v>
+        <v>0.9686671891146382</v>
       </c>
     </row>
     <row r="1843" spans="1:2">
@@ -15247,7 +15247,7 @@
         <v>1863</v>
       </c>
       <c r="B1863">
-        <v>4.04707658708225</v>
+        <v>4.047076587082249</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -15311,7 +15311,7 @@
         <v>1871</v>
       </c>
       <c r="B1871">
-        <v>0.4672079884131435</v>
+        <v>0.4672079884131434</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -15383,7 +15383,7 @@
         <v>1880</v>
       </c>
       <c r="B1880">
-        <v>102.3216501540675</v>
+        <v>102.3216501540674</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -15399,7 +15399,7 @@
         <v>1882</v>
       </c>
       <c r="B1882">
-        <v>69.40830715720507</v>
+        <v>69.40830715720506</v>
       </c>
     </row>
     <row r="1883" spans="1:2">
@@ -15471,7 +15471,7 @@
         <v>1891</v>
       </c>
       <c r="B1891">
-        <v>0.6753177329665648</v>
+        <v>0.6753177329665647</v>
       </c>
     </row>
     <row r="1892" spans="1:2">
@@ -15487,7 +15487,7 @@
         <v>1893</v>
       </c>
       <c r="B1893">
-        <v>0.6041337083861106</v>
+        <v>0.6041337083861105</v>
       </c>
     </row>
     <row r="1894" spans="1:2">
@@ -15567,7 +15567,7 @@
         <v>1903</v>
       </c>
       <c r="B1903">
-        <v>166.7014444299212</v>
+        <v>166.7014444299211</v>
       </c>
     </row>
     <row r="1904" spans="1:2">
@@ -15591,7 +15591,7 @@
         <v>1906</v>
       </c>
       <c r="B1906">
-        <v>48.26147329155704</v>
+        <v>48.26147329155703</v>
       </c>
     </row>
     <row r="1907" spans="1:2">
@@ -15639,7 +15639,7 @@
         <v>1912</v>
       </c>
       <c r="B1912">
-        <v>12.07118578300669</v>
+        <v>12.07118578300668</v>
       </c>
     </row>
     <row r="1913" spans="1:2">
@@ -15663,7 +15663,7 @@
         <v>1915</v>
       </c>
       <c r="B1915">
-        <v>0.820666314590659</v>
+        <v>0.8206663145906589</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -15679,7 +15679,7 @@
         <v>1917</v>
       </c>
       <c r="B1917">
-        <v>0.6600106326172828</v>
+        <v>0.6600106326172827</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>0.8632729821912454</v>
+        <v>0.8632729821912453</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -15855,7 +15855,7 @@
         <v>1939</v>
       </c>
       <c r="B1939">
-        <v>0.7686432745178835</v>
+        <v>0.7686432745178834</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -15903,7 +15903,7 @@
         <v>1945</v>
       </c>
       <c r="B1945">
-        <v>2.743637281215144</v>
+        <v>2.743637281215143</v>
       </c>
     </row>
     <row r="1946" spans="1:2">
@@ -15959,7 +15959,7 @@
         <v>1952</v>
       </c>
       <c r="B1952">
-        <v>96.43150841905174</v>
+        <v>96.43150841905172</v>
       </c>
     </row>
     <row r="1953" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>53.56605909132739</v>
+        <v>53.56605909132738</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16007,7 +16007,7 @@
         <v>1958</v>
       </c>
       <c r="B1958">
-        <v>44.67692141769013</v>
+        <v>44.67692141769012</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
@@ -16015,7 +16015,7 @@
         <v>1959</v>
       </c>
       <c r="B1959">
-        <v>47.19147092940447</v>
+        <v>47.19147092940446</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -16031,7 +16031,7 @@
         <v>1961</v>
       </c>
       <c r="B1961">
-        <v>70.72302383663987</v>
+        <v>70.72302383663985</v>
       </c>
     </row>
     <row r="1962" spans="1:2">
@@ -16055,7 +16055,7 @@
         <v>1964</v>
       </c>
       <c r="B1964">
-        <v>0.9288945184579072</v>
+        <v>0.928894518457907</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
@@ -16215,7 +16215,7 @@
         <v>1984</v>
       </c>
       <c r="B1984">
-        <v>23.84405455576</v>
+        <v>23.84405455575999</v>
       </c>
     </row>
     <row r="1985" spans="1:2">
@@ -16287,7 +16287,7 @@
         <v>1993</v>
       </c>
       <c r="B1993">
-        <v>68.55986650028048</v>
+        <v>68.55986650028046</v>
       </c>
     </row>
     <row r="1994" spans="1:2">
@@ -16351,7 +16351,7 @@
         <v>2001</v>
       </c>
       <c r="B2001">
-        <v>50.37363626718936</v>
+        <v>50.37363626718935</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -16407,7 +16407,7 @@
         <v>2008</v>
       </c>
       <c r="B2008">
-        <v>51.73407202865532</v>
+        <v>51.73407202865531</v>
       </c>
     </row>
     <row r="2009" spans="1:2">
@@ -16415,7 +16415,7 @@
         <v>2009</v>
       </c>
       <c r="B2009">
-        <v>49.75730787288455</v>
+        <v>49.75730787288454</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -16455,7 +16455,7 @@
         <v>2014</v>
       </c>
       <c r="B2014">
-        <v>71.3800891053186</v>
+        <v>71.38008910531859</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -16479,7 +16479,7 @@
         <v>2017</v>
       </c>
       <c r="B2017">
-        <v>69.83619087365064</v>
+        <v>69.83619087365062</v>
       </c>
     </row>
     <row r="2018" spans="1:2">
@@ -16623,7 +16623,7 @@
         <v>2035</v>
       </c>
       <c r="B2035">
-        <v>0.8983477240982352</v>
+        <v>0.898347724098235</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
@@ -16791,7 +16791,7 @@
         <v>2056</v>
       </c>
       <c r="B2056">
-        <v>67.64255414927047</v>
+        <v>67.64255414927045</v>
       </c>
     </row>
     <row r="2057" spans="1:2">
@@ -16871,7 +16871,7 @@
         <v>2066</v>
       </c>
       <c r="B2066">
-        <v>27.40275756401698</v>
+        <v>27.40275756401697</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -16895,7 +16895,7 @@
         <v>2069</v>
       </c>
       <c r="B2069">
-        <v>40.46812823147455</v>
+        <v>40.46812823147454</v>
       </c>
     </row>
     <row r="2070" spans="1:2">
@@ -16951,7 +16951,7 @@
         <v>2076</v>
       </c>
       <c r="B2076">
-        <v>67.27885299029174</v>
+        <v>67.27885299029172</v>
       </c>
     </row>
     <row r="2077" spans="1:2">
@@ -16983,7 +16983,7 @@
         <v>2080</v>
       </c>
       <c r="B2080">
-        <v>42.20574641969766</v>
+        <v>42.20574641969765</v>
       </c>
     </row>
     <row r="2081" spans="1:2">
@@ -16991,7 +16991,7 @@
         <v>2081</v>
       </c>
       <c r="B2081">
-        <v>51.27277821380236</v>
+        <v>51.27277821380235</v>
       </c>
     </row>
     <row r="2082" spans="1:2">
@@ -17015,7 +17015,7 @@
         <v>2084</v>
       </c>
       <c r="B2084">
-        <v>0.6357677962992162</v>
+        <v>0.6357677962992161</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -17359,7 +17359,7 @@
         <v>2127</v>
       </c>
       <c r="B2127">
-        <v>0.75176238269099</v>
+        <v>0.7517623826909899</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>0.5589421542245312</v>
+        <v>0.5589421542245311</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17447,7 +17447,7 @@
         <v>2138</v>
       </c>
       <c r="B2138">
-        <v>4.358640408283126</v>
+        <v>4.358640408283125</v>
       </c>
     </row>
     <row r="2139" spans="1:2">
@@ -17567,7 +17567,7 @@
         <v>2153</v>
       </c>
       <c r="B2153">
-        <v>6.976819839268121</v>
+        <v>6.97681983926812</v>
       </c>
     </row>
     <row r="2154" spans="1:2">
@@ -17599,7 +17599,7 @@
         <v>2157</v>
       </c>
       <c r="B2157">
-        <v>21.44887287809242</v>
+        <v>21.44887287809241</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -17607,7 +17607,7 @@
         <v>2158</v>
       </c>
       <c r="B2158">
-        <v>28.14076905357398</v>
+        <v>28.14076905357397</v>
       </c>
     </row>
     <row r="2159" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>39.40574571632717</v>
+        <v>39.40574571632716</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17671,7 +17671,7 @@
         <v>2166</v>
       </c>
       <c r="B2166">
-        <v>76.52377890486387</v>
+        <v>76.52377890486386</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -17687,7 +17687,7 @@
         <v>2168</v>
       </c>
       <c r="B2168">
-        <v>43.89500788654166</v>
+        <v>43.89500788654165</v>
       </c>
     </row>
     <row r="2169" spans="1:2">
@@ -17775,7 +17775,7 @@
         <v>2179</v>
       </c>
       <c r="B2179">
-        <v>2.233113393287853</v>
+        <v>2.233113393287852</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
@@ -17783,7 +17783,7 @@
         <v>2180</v>
       </c>
       <c r="B2180">
-        <v>7.829861711499698</v>
+        <v>7.829861711499697</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>55.25209677674611</v>
+        <v>55.2520967767461</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -17863,7 +17863,7 @@
         <v>2190</v>
       </c>
       <c r="B2190">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="2191" spans="1:2">
@@ -18023,7 +18023,7 @@
         <v>2210</v>
       </c>
       <c r="B2210">
-        <v>0.0512906555471607</v>
+        <v>0.0512906555471606</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -18127,7 +18127,7 @@
         <v>2223</v>
       </c>
       <c r="B2223">
-        <v>0.8368526280559251</v>
+        <v>0.836852628055925</v>
       </c>
     </row>
     <row r="2224" spans="1:2">
@@ -18191,7 +18191,7 @@
         <v>2231</v>
       </c>
       <c r="B2231">
-        <v>0.607747274292805</v>
+        <v>0.6077472742928048</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>5.841931549155927</v>
+        <v>5.841931549155926</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>1.351080933911895</v>
+        <v>1.351080933911894</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -18855,7 +18855,7 @@
         <v>2314</v>
       </c>
       <c r="B2314">
-        <v>0.8874894421158322</v>
+        <v>0.8874894421158321</v>
       </c>
     </row>
     <row r="2315" spans="1:2">
@@ -18887,7 +18887,7 @@
         <v>2318</v>
       </c>
       <c r="B2318">
-        <v>0.5427763557319714</v>
+        <v>0.5427763557319712</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
@@ -18975,7 +18975,7 @@
         <v>2329</v>
       </c>
       <c r="B2329">
-        <v>0.4487591665294118</v>
+        <v>0.4487591665294117</v>
       </c>
     </row>
     <row r="2330" spans="1:2">
@@ -19055,7 +19055,7 @@
         <v>2339</v>
       </c>
       <c r="B2339">
-        <v>0.6819382077299245</v>
+        <v>0.6819382077299244</v>
       </c>
     </row>
     <row r="2340" spans="1:2">
@@ -19071,7 +19071,7 @@
         <v>2341</v>
       </c>
       <c r="B2341">
-        <v>0.7176840823154489</v>
+        <v>0.7176840823154488</v>
       </c>
     </row>
     <row r="2342" spans="1:2">
@@ -19095,7 +19095,7 @@
         <v>2344</v>
       </c>
       <c r="B2344">
-        <v>0.9615162557713016</v>
+        <v>0.9615162557713014</v>
       </c>
     </row>
     <row r="2345" spans="1:2">
@@ -19207,7 +19207,7 @@
         <v>2358</v>
       </c>
       <c r="B2358">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="2359" spans="1:2">
@@ -19239,7 +19239,7 @@
         <v>2362</v>
       </c>
       <c r="B2362">
-        <v>64.40968752179717</v>
+        <v>64.40968752179715</v>
       </c>
     </row>
     <row r="2363" spans="1:2">
@@ -19295,7 +19295,7 @@
         <v>2369</v>
       </c>
       <c r="B2369">
-        <v>46.01713527748846</v>
+        <v>46.01713527748845</v>
       </c>
     </row>
     <row r="2370" spans="1:2">
@@ -19367,7 +19367,7 @@
         <v>2378</v>
       </c>
       <c r="B2378">
-        <v>56.19783701850627</v>
+        <v>56.19783701850626</v>
       </c>
     </row>
     <row r="2379" spans="1:2">
@@ -19407,7 +19407,7 @@
         <v>2383</v>
       </c>
       <c r="B2383">
-        <v>210.1228495179861</v>
+        <v>210.122849517986</v>
       </c>
     </row>
     <row r="2384" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>53.17598153886914</v>
+        <v>53.17598153886913</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19615,7 +19615,7 @@
         <v>2409</v>
       </c>
       <c r="B2409">
-        <v>82.00918953548828</v>
+        <v>82.00918953548826</v>
       </c>
     </row>
     <row r="2410" spans="1:2">
@@ -19639,7 +19639,7 @@
         <v>2412</v>
       </c>
       <c r="B2412">
-        <v>30.6197690482987</v>
+        <v>30.61976904829869</v>
       </c>
     </row>
     <row r="2413" spans="1:2">
@@ -19703,7 +19703,7 @@
         <v>2420</v>
       </c>
       <c r="B2420">
-        <v>0.7709643971440814</v>
+        <v>0.7709643971440813</v>
       </c>
     </row>
     <row r="2421" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>0.6902848709109997</v>
+        <v>0.6902848709109995</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19767,7 +19767,7 @@
         <v>2428</v>
       </c>
       <c r="B2428">
-        <v>18.94742364180624</v>
+        <v>18.94742364180623</v>
       </c>
     </row>
     <row r="2429" spans="1:2">
@@ -20023,7 +20023,7 @@
         <v>2460</v>
       </c>
       <c r="B2460">
-        <v>0.4568889571418775</v>
+        <v>0.4568889571418774</v>
       </c>
     </row>
     <row r="2461" spans="1:2">
@@ -20143,7 +20143,7 @@
         <v>2475</v>
       </c>
       <c r="B2475">
-        <v>6.13198395611906</v>
+        <v>6.131983956119059</v>
       </c>
     </row>
     <row r="2476" spans="1:2">
@@ -20215,7 +20215,7 @@
         <v>2484</v>
       </c>
       <c r="B2484">
-        <v>0.769739360202477</v>
+        <v>0.7697393602024769</v>
       </c>
     </row>
     <row r="2485" spans="1:2">
@@ -20247,7 +20247,7 @@
         <v>2488</v>
       </c>
       <c r="B2488">
-        <v>0.6271163392379333</v>
+        <v>0.6271163392379332</v>
       </c>
     </row>
     <row r="2489" spans="1:2">
@@ -20391,7 +20391,7 @@
         <v>2506</v>
       </c>
       <c r="B2506">
-        <v>3.805439515705971</v>
+        <v>3.80543951570597</v>
       </c>
     </row>
     <row r="2507" spans="1:2">
@@ -20423,7 +20423,7 @@
         <v>2510</v>
       </c>
       <c r="B2510">
-        <v>0.8446424562635436</v>
+        <v>0.8446424562635435</v>
       </c>
     </row>
     <row r="2511" spans="1:2">
@@ -20543,7 +20543,7 @@
         <v>2525</v>
       </c>
       <c r="B2525">
-        <v>56.5744333031861</v>
+        <v>56.57443330318609</v>
       </c>
     </row>
     <row r="2526" spans="1:2">
@@ -20607,7 +20607,7 @@
         <v>2533</v>
       </c>
       <c r="B2533">
-        <v>0.8833131798149081</v>
+        <v>0.883313179814908</v>
       </c>
     </row>
     <row r="2534" spans="1:2">
@@ -20615,7 +20615,7 @@
         <v>2534</v>
       </c>
       <c r="B2534">
-        <v>0.75470481591915</v>
+        <v>0.7547048159191498</v>
       </c>
     </row>
     <row r="2535" spans="1:2">
@@ -20751,7 +20751,7 @@
         <v>2551</v>
       </c>
       <c r="B2551">
-        <v>99.97297885023544</v>
+        <v>99.97297885023542</v>
       </c>
     </row>
     <row r="2552" spans="1:2">
@@ -20823,7 +20823,7 @@
         <v>2560</v>
       </c>
       <c r="B2560">
-        <v>23.97028025211144</v>
+        <v>23.97028025211143</v>
       </c>
     </row>
     <row r="2561" spans="1:2">
@@ -20991,7 +20991,7 @@
         <v>2581</v>
       </c>
       <c r="B2581">
-        <v>38.62617675348799</v>
+        <v>38.62617675348798</v>
       </c>
     </row>
     <row r="2582" spans="1:2">
@@ -21071,7 +21071,7 @@
         <v>2591</v>
       </c>
       <c r="B2591">
-        <v>0.9924792110058728</v>
+        <v>0.9924792110058726</v>
       </c>
     </row>
     <row r="2592" spans="1:2">
@@ -21207,7 +21207,7 @@
         <v>2608</v>
       </c>
       <c r="B2608">
-        <v>0.3967038886423836</v>
+        <v>0.3967038886423835</v>
       </c>
     </row>
     <row r="2609" spans="1:2">
@@ -21255,7 +21255,7 @@
         <v>2614</v>
       </c>
       <c r="B2614">
-        <v>0.4667390747512853</v>
+        <v>0.4667390747512852</v>
       </c>
     </row>
     <row r="2615" spans="1:2">
@@ -21447,7 +21447,7 @@
         <v>2638</v>
       </c>
       <c r="B2638">
-        <v>0.6555676756711767</v>
+        <v>0.6555676756711766</v>
       </c>
     </row>
     <row r="2639" spans="1:2">
@@ -21527,7 +21527,7 @@
         <v>2648</v>
       </c>
       <c r="B2648">
-        <v>5.420378167145447</v>
+        <v>5.420378167145446</v>
       </c>
     </row>
     <row r="2649" spans="1:2">
@@ -21703,7 +21703,7 @@
         <v>2670</v>
       </c>
       <c r="B2670">
-        <v>45.01834917773059</v>
+        <v>45.01834917773058</v>
       </c>
     </row>
     <row r="2671" spans="1:2">
@@ -21735,7 +21735,7 @@
         <v>2674</v>
       </c>
       <c r="B2674">
-        <v>6.395953040641334</v>
+        <v>6.395953040641333</v>
       </c>
     </row>
     <row r="2675" spans="1:2">
@@ -21783,7 +21783,7 @@
         <v>2680</v>
       </c>
       <c r="B2680">
-        <v>0.8846056230954047</v>
+        <v>0.8846056230954046</v>
       </c>
     </row>
     <row r="2681" spans="1:2">
@@ -21943,7 +21943,7 @@
         <v>2700</v>
       </c>
       <c r="B2700">
-        <v>56.77313546739849</v>
+        <v>56.77313546739848</v>
       </c>
     </row>
     <row r="2701" spans="1:2">
@@ -21967,7 +21967,7 @@
         <v>2703</v>
       </c>
       <c r="B2703">
-        <v>47.13314979271086</v>
+        <v>47.13314979271085</v>
       </c>
     </row>
     <row r="2704" spans="1:2">
@@ -22015,7 +22015,7 @@
         <v>2709</v>
       </c>
       <c r="B2709">
-        <v>4.673193554078348</v>
+        <v>4.673193554078347</v>
       </c>
     </row>
     <row r="2710" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>21.19501474440396</v>
+        <v>21.19501474440395</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22263,7 +22263,7 @@
         <v>2740</v>
       </c>
       <c r="B2740">
-        <v>4.233411153463133</v>
+        <v>4.233411153463132</v>
       </c>
     </row>
     <row r="2741" spans="1:2">
@@ -22287,7 +22287,7 @@
         <v>2743</v>
       </c>
       <c r="B2743">
-        <v>115.6716221071691</v>
+        <v>115.671622107169</v>
       </c>
     </row>
     <row r="2744" spans="1:2">
@@ -22295,7 +22295,7 @@
         <v>2744</v>
       </c>
       <c r="B2744">
-        <v>53.44355539716695</v>
+        <v>53.44355539716694</v>
       </c>
     </row>
     <row r="2745" spans="1:2">
@@ -22359,7 +22359,7 @@
         <v>2752</v>
       </c>
       <c r="B2752">
-        <v>0.7058498737743037</v>
+        <v>0.7058498737743036</v>
       </c>
     </row>
     <row r="2753" spans="1:2">
@@ -22463,7 +22463,7 @@
         <v>2765</v>
       </c>
       <c r="B2765">
-        <v>0.0951481503407537</v>
+        <v>0.09514815034075361</v>
       </c>
     </row>
     <row r="2766" spans="1:2">
@@ -22527,7 +22527,7 @@
         <v>2773</v>
       </c>
       <c r="B2773">
-        <v>0.7510091901216305</v>
+        <v>0.7510091901216304</v>
       </c>
     </row>
     <row r="2774" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>0.848346874192223</v>
+        <v>0.8483468741922229</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -22775,7 +22775,7 @@
         <v>2804</v>
       </c>
       <c r="B2804">
-        <v>0.5783962097708713</v>
+        <v>0.5783962097708711</v>
       </c>
     </row>
     <row r="2805" spans="1:2">
@@ -22903,7 +22903,7 @@
         <v>2820</v>
       </c>
       <c r="B2820">
-        <v>0.9099005844422654</v>
+        <v>0.9099005844422652</v>
       </c>
     </row>
     <row r="2821" spans="1:2">
@@ -23111,7 +23111,7 @@
         <v>2846</v>
       </c>
       <c r="B2846">
-        <v>0.8945671076995038</v>
+        <v>0.8945671076995036</v>
       </c>
     </row>
     <row r="2847" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>59.14759702263271</v>
+        <v>59.1475970226327</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23271,7 +23271,7 @@
         <v>2866</v>
       </c>
       <c r="B2866">
-        <v>8.706906101797641</v>
+        <v>8.706906101797639</v>
       </c>
     </row>
     <row r="2867" spans="1:2">
@@ -23319,7 +23319,7 @@
         <v>2872</v>
       </c>
       <c r="B2872">
-        <v>0.5410149987896167</v>
+        <v>0.5410149987896166</v>
       </c>
     </row>
     <row r="2873" spans="1:2">
@@ -23439,7 +23439,7 @@
         <v>2887</v>
       </c>
       <c r="B2887">
-        <v>77.70133833820516</v>
+        <v>77.70133833820515</v>
       </c>
     </row>
     <row r="2888" spans="1:2">
@@ -23471,7 +23471,7 @@
         <v>2891</v>
       </c>
       <c r="B2891">
-        <v>0.8757636698589919</v>
+        <v>0.8757636698589918</v>
       </c>
     </row>
     <row r="2892" spans="1:2">
@@ -23503,7 +23503,7 @@
         <v>2895</v>
       </c>
       <c r="B2895">
-        <v>0.4764104190271097</v>
+        <v>0.4764104190271096</v>
       </c>
     </row>
     <row r="2896" spans="1:2">
@@ -23519,7 +23519,7 @@
         <v>2897</v>
       </c>
       <c r="B2897">
-        <v>0.0380324148291601</v>
+        <v>0.03803241482916</v>
       </c>
     </row>
     <row r="2898" spans="1:2">
@@ -23943,7 +23943,7 @@
         <v>2950</v>
       </c>
       <c r="B2950">
-        <v>0.5573830162988528</v>
+        <v>0.5573830162988527</v>
       </c>
     </row>
     <row r="2951" spans="1:2">
@@ -24223,7 +24223,7 @@
         <v>2985</v>
       </c>
       <c r="B2985">
-        <v>1.766972183455437</v>
+        <v>1.766972183455436</v>
       </c>
     </row>
     <row r="2986" spans="1:2">
@@ -24239,7 +24239,7 @@
         <v>2987</v>
       </c>
       <c r="B2987">
-        <v>0.8673525310494113</v>
+        <v>0.8673525310494112</v>
       </c>
     </row>
     <row r="2988" spans="1:2">
@@ -24247,7 +24247,7 @@
         <v>2988</v>
       </c>
       <c r="B2988">
-        <v>0.8176007915262613</v>
+        <v>0.8176007915262612</v>
       </c>
     </row>
     <row r="2989" spans="1:2">
@@ -24407,7 +24407,7 @@
         <v>3008</v>
       </c>
       <c r="B3008">
-        <v>1.573782685480265</v>
+        <v>1.573782685480264</v>
       </c>
     </row>
     <row r="3009" spans="1:2">
@@ -24439,7 +24439,7 @@
         <v>3012</v>
       </c>
       <c r="B3012">
-        <v>0.7059231415339691</v>
+        <v>0.705923141533969</v>
       </c>
     </row>
     <row r="3013" spans="1:2">
@@ -24455,7 +24455,7 @@
         <v>3014</v>
       </c>
       <c r="B3014">
-        <v>0.6164837219552998</v>
+        <v>0.6164837219552997</v>
       </c>
     </row>
     <row r="3015" spans="1:2">
@@ -24991,7 +24991,7 @@
         <v>3081</v>
       </c>
       <c r="B3081">
-        <v>0.8969380524022741</v>
+        <v>0.896938052402274</v>
       </c>
     </row>
     <row r="3082" spans="1:2">
@@ -25007,7 +25007,7 @@
         <v>3083</v>
       </c>
       <c r="B3083">
-        <v>0.3985443747651769</v>
+        <v>0.3985443747651768</v>
       </c>
     </row>
     <row r="3084" spans="1:2">
@@ -25023,7 +25023,7 @@
         <v>3085</v>
       </c>
       <c r="B3085">
-        <v>0.6640784586339021</v>
+        <v>0.664078458633902</v>
       </c>
     </row>
     <row r="3086" spans="1:2">
@@ -25159,7 +25159,7 @@
         <v>3102</v>
       </c>
       <c r="B3102">
-        <v>82.06751067218188</v>
+        <v>82.06751067218187</v>
       </c>
     </row>
     <row r="3103" spans="1:2">
@@ -25207,7 +25207,7 @@
         <v>3108</v>
       </c>
       <c r="B3108">
-        <v>0.6254751414214298</v>
+        <v>0.6254751414214297</v>
       </c>
     </row>
     <row r="3109" spans="1:2">
@@ -25351,7 +25351,7 @@
         <v>3126</v>
       </c>
       <c r="B3126">
-        <v>89.76912449716338</v>
+        <v>89.76912449716336</v>
       </c>
     </row>
     <row r="3127" spans="1:2">
@@ -25391,7 +25391,7 @@
         <v>3131</v>
       </c>
       <c r="B3131">
-        <v>0.8169384509788867</v>
+        <v>0.8169384509788866</v>
       </c>
     </row>
     <row r="3132" spans="1:2">
@@ -25599,7 +25599,7 @@
         <v>3157</v>
       </c>
       <c r="B3157">
-        <v>0.7958783661406824</v>
+        <v>0.7958783661406823</v>
       </c>
     </row>
     <row r="3158" spans="1:2">
@@ -25607,7 +25607,7 @@
         <v>3158</v>
       </c>
       <c r="B3158">
-        <v>0.814426832177559</v>
+        <v>0.8144268321775588</v>
       </c>
     </row>
     <row r="3159" spans="1:2">
@@ -25615,7 +25615,7 @@
         <v>3159</v>
       </c>
       <c r="B3159">
-        <v>0.9625420044066162</v>
+        <v>0.962542004406616</v>
       </c>
     </row>
     <row r="3160" spans="1:2">
@@ -25775,7 +25775,7 @@
         <v>3179</v>
       </c>
       <c r="B3179">
-        <v>1.295628962686782</v>
+        <v>1.295628962686781</v>
       </c>
     </row>
     <row r="3180" spans="1:2">
@@ -25959,7 +25959,7 @@
         <v>3202</v>
       </c>
       <c r="B3202">
-        <v>0.8430833183378652</v>
+        <v>0.8430833183378651</v>
       </c>
     </row>
     <row r="3203" spans="1:2">
@@ -26167,7 +26167,7 @@
         <v>3228</v>
       </c>
       <c r="B3228">
-        <v>0.633282553891368</v>
+        <v>0.6332825538913679</v>
       </c>
     </row>
     <row r="3229" spans="1:2">
@@ -26183,7 +26183,7 @@
         <v>3230</v>
       </c>
       <c r="B3230">
-        <v>0.8430188427093598</v>
+        <v>0.8430188427093597</v>
       </c>
     </row>
     <row r="3231" spans="1:2">
@@ -26311,7 +26311,7 @@
         <v>3246</v>
       </c>
       <c r="B3246">
-        <v>125.6105402412913</v>
+        <v>125.6105402412912</v>
       </c>
     </row>
     <row r="3247" spans="1:2">
@@ -26535,7 +26535,7 @@
         <v>3274</v>
       </c>
       <c r="B3274">
-        <v>0.8449648344060711</v>
+        <v>0.844964834406071</v>
       </c>
     </row>
     <row r="3275" spans="1:2">
@@ -26543,7 +26543,7 @@
         <v>3275</v>
       </c>
       <c r="B3275">
-        <v>0.6290887073281242</v>
+        <v>0.6290887073281241</v>
       </c>
     </row>
     <row r="3276" spans="1:2">
@@ -26551,7 +26551,7 @@
         <v>3276</v>
       </c>
       <c r="B3276">
-        <v>0.1197790127140078</v>
+        <v>0.1197790127140077</v>
       </c>
     </row>
     <row r="3277" spans="1:2">
@@ -26727,7 +26727,7 @@
         <v>3298</v>
       </c>
       <c r="B3298">
-        <v>0.5085280741540066</v>
+        <v>0.5085280741540065</v>
       </c>
     </row>
     <row r="3299" spans="1:2">
@@ -26735,7 +26735,7 @@
         <v>3299</v>
       </c>
       <c r="B3299">
-        <v>0.4257853278087489</v>
+        <v>0.4257853278087488</v>
       </c>
     </row>
     <row r="3300" spans="1:2">
@@ -26839,7 +26839,7 @@
         <v>3312</v>
       </c>
       <c r="B3312">
-        <v>0.4794231893045483</v>
+        <v>0.4794231893045482</v>
       </c>
     </row>
     <row r="3313" spans="1:2">
@@ -26935,7 +26935,7 @@
         <v>3324</v>
       </c>
       <c r="B3324">
-        <v>0.6191594605382778</v>
+        <v>0.6191594605382776</v>
       </c>
     </row>
     <row r="3325" spans="1:2">
@@ -26943,7 +26943,7 @@
         <v>3325</v>
       </c>
       <c r="B3325">
-        <v>0.6530150269244364</v>
+        <v>0.6530150269244362</v>
       </c>
     </row>
     <row r="3326" spans="1:2">
@@ -27159,7 +27159,7 @@
         <v>3352</v>
       </c>
       <c r="B3352">
-        <v>0.896507237975442</v>
+        <v>0.8965072379754419</v>
       </c>
     </row>
     <row r="3353" spans="1:2">
@@ -27215,7 +27215,7 @@
         <v>3359</v>
       </c>
       <c r="B3359">
-        <v>4.359255857464315</v>
+        <v>4.359255857464314</v>
       </c>
     </row>
     <row r="3360" spans="1:2">
@@ -27255,7 +27255,7 @@
         <v>3364</v>
       </c>
       <c r="B3364">
-        <v>38.47084910299748</v>
+        <v>38.47084910299747</v>
       </c>
     </row>
     <row r="3365" spans="1:2">
@@ -27383,7 +27383,7 @@
         <v>3380</v>
       </c>
       <c r="B3380">
-        <v>0.6741571716534659</v>
+        <v>0.6741571716534658</v>
       </c>
     </row>
     <row r="3381" spans="1:2">
@@ -27455,7 +27455,7 @@
         <v>3389</v>
       </c>
       <c r="B3389">
-        <v>20.33265321314295</v>
+        <v>20.33265321314294</v>
       </c>
     </row>
     <row r="3390" spans="1:2">
@@ -27479,7 +27479,7 @@
         <v>3392</v>
       </c>
       <c r="B3392">
-        <v>45.20210471897126</v>
+        <v>45.20210471897125</v>
       </c>
     </row>
     <row r="3393" spans="1:2">
@@ -27511,7 +27511,7 @@
         <v>3396</v>
       </c>
       <c r="B3396">
-        <v>0.3632175917649383</v>
+        <v>0.3632175917649382</v>
       </c>
     </row>
     <row r="3397" spans="1:2">
@@ -27695,7 +27695,7 @@
         <v>3419</v>
       </c>
       <c r="B3419">
-        <v>0.7693818135353101</v>
+        <v>0.76938181353531</v>
       </c>
     </row>
     <row r="3420" spans="1:2">
@@ -27711,7 +27711,7 @@
         <v>3421</v>
       </c>
       <c r="B3421">
-        <v>0.8605708672147877</v>
+        <v>0.8605708672147876</v>
       </c>
     </row>
     <row r="3422" spans="1:2">
@@ -27751,7 +27751,7 @@
         <v>3426</v>
       </c>
       <c r="B3426">
-        <v>0.4746168242705023</v>
+        <v>0.4746168242705022</v>
       </c>
     </row>
     <row r="3427" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>1.049288101139988</v>
+        <v>1.049288101139987</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27887,7 +27887,7 @@
         <v>3443</v>
       </c>
       <c r="B3443">
-        <v>0.8424795919982229</v>
+        <v>0.8424795919982228</v>
       </c>
     </row>
     <row r="3444" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>0.701556383057915</v>
+        <v>0.7015563830579149</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -28071,7 +28071,7 @@
         <v>3466</v>
       </c>
       <c r="B3466">
-        <v>0.8008429895356056</v>
+        <v>0.8008429895356055</v>
       </c>
     </row>
     <row r="3467" spans="1:2">
@@ -28239,7 +28239,7 @@
         <v>3487</v>
       </c>
       <c r="B3487">
-        <v>0.0263568163341385</v>
+        <v>0.0263568163341384</v>
       </c>
     </row>
     <row r="3488" spans="1:2">
@@ -28263,7 +28263,7 @@
         <v>3490</v>
       </c>
       <c r="B3490">
-        <v>0.871851171492863</v>
+        <v>0.8718511714928628</v>
       </c>
     </row>
     <row r="3491" spans="1:2">
@@ -28279,7 +28279,7 @@
         <v>3492</v>
       </c>
       <c r="B3492">
-        <v>0.9151465560343036</v>
+        <v>0.9151465560343034</v>
       </c>
     </row>
     <row r="3493" spans="1:2">
@@ -28479,7 +28479,7 @@
         <v>3517</v>
       </c>
       <c r="B3517">
-        <v>0.5530983177136239</v>
+        <v>0.5530983177136238</v>
       </c>
     </row>
     <row r="3518" spans="1:2">
@@ -28503,7 +28503,7 @@
         <v>3520</v>
       </c>
       <c r="B3520">
-        <v>0.7399369662810048</v>
+        <v>0.7399369662810047</v>
       </c>
     </row>
     <row r="3521" spans="1:2">
@@ -29199,7 +29199,7 @@
         <v>3607</v>
       </c>
       <c r="B3607">
-        <v>2.225168237429744</v>
+        <v>2.225168237429743</v>
       </c>
     </row>
     <row r="3608" spans="1:2">
@@ -29287,7 +29287,7 @@
         <v>3618</v>
       </c>
       <c r="B3618">
-        <v>0.5072063237696439</v>
+        <v>0.5072063237696438</v>
       </c>
     </row>
     <row r="3619" spans="1:2">
@@ -29607,7 +29607,7 @@
         <v>3658</v>
       </c>
       <c r="B3658">
-        <v>0.5141843452001705</v>
+        <v>0.5141843452001704</v>
       </c>
     </row>
     <row r="3659" spans="1:2">
@@ -29615,7 +29615,7 @@
         <v>3659</v>
       </c>
       <c r="B3659">
-        <v>0.8376146127564446</v>
+        <v>0.8376146127564444</v>
       </c>
     </row>
     <row r="3660" spans="1:2">
@@ -29631,7 +29631,7 @@
         <v>3661</v>
       </c>
       <c r="B3661">
-        <v>0.4804225615463835</v>
+        <v>0.4804225615463834</v>
       </c>
     </row>
     <row r="3662" spans="1:2">
@@ -29775,7 +29775,7 @@
         <v>3679</v>
       </c>
       <c r="B3679">
-        <v>1.503832489972575</v>
+        <v>1.503832489972574</v>
       </c>
     </row>
     <row r="3680" spans="1:2">
@@ -29807,7 +29807,7 @@
         <v>3683</v>
       </c>
       <c r="B3683">
-        <v>0.7061458755233516</v>
+        <v>0.7061458755233515</v>
       </c>
     </row>
     <row r="3684" spans="1:2">
@@ -29815,7 +29815,7 @@
         <v>3684</v>
       </c>
       <c r="B3684">
-        <v>0.6182069796626284</v>
+        <v>0.6182069796626283</v>
       </c>
     </row>
     <row r="3685" spans="1:2">
@@ -29823,7 +29823,7 @@
         <v>3685</v>
       </c>
       <c r="B3685">
-        <v>0.6216212572630331</v>
+        <v>0.621621257263033</v>
       </c>
     </row>
     <row r="3686" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>0.8209066328423613</v>
+        <v>0.8209066328423612</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -29975,7 +29975,7 @@
         <v>3704</v>
       </c>
       <c r="B3704">
-        <v>2.52516161402427</v>
+        <v>2.525161614024269</v>
       </c>
     </row>
     <row r="3705" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>16.09050854272771</v>
+        <v>16.0905085427277</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30551,7 +30551,7 @@
         <v>3776</v>
       </c>
       <c r="B3776">
-        <v>1.347525982212933</v>
+        <v>1.347525982212932</v>
       </c>
     </row>
     <row r="3777" spans="1:2">
@@ -30751,7 +30751,7 @@
         <v>3801</v>
       </c>
       <c r="B3801">
-        <v>0.7735434222843013</v>
+        <v>0.7735434222843012</v>
       </c>
     </row>
     <row r="3802" spans="1:2">
@@ -30967,7 +30967,7 @@
         <v>3828</v>
       </c>
       <c r="B3828">
-        <v>0.3371782299798778</v>
+        <v>0.3371782299798777</v>
       </c>
     </row>
     <row r="3829" spans="1:2">
@@ -30999,7 +30999,7 @@
         <v>3832</v>
       </c>
       <c r="B3832">
-        <v>0.9855744573350114</v>
+        <v>0.9855744573350111</v>
       </c>
     </row>
     <row r="3833" spans="1:2">
@@ -31127,7 +31127,7 @@
         <v>3848</v>
       </c>
       <c r="B3848">
-        <v>0.5626495028635972</v>
+        <v>0.5626495028635971</v>
       </c>
     </row>
     <row r="3849" spans="1:2">
@@ -31143,7 +31143,7 @@
         <v>3850</v>
       </c>
       <c r="B3850">
-        <v>0.8179231696687888</v>
+        <v>0.8179231696687886</v>
       </c>
     </row>
     <row r="3851" spans="1:2">
@@ -31151,7 +31151,7 @@
         <v>3851</v>
       </c>
       <c r="B3851">
-        <v>0.8194061091244151</v>
+        <v>0.819406109124415</v>
       </c>
     </row>
     <row r="3852" spans="1:2">
@@ -31199,7 +31199,7 @@
         <v>3857</v>
       </c>
       <c r="B3857">
-        <v>0.6858184682818008</v>
+        <v>0.6858184682818007</v>
       </c>
     </row>
     <row r="3858" spans="1:2">
@@ -31359,7 +31359,7 @@
         <v>3877</v>
       </c>
       <c r="B3877">
-        <v>0.6091745302510858</v>
+        <v>0.6091745302510857</v>
       </c>
     </row>
     <row r="3878" spans="1:2">
@@ -31495,7 +31495,7 @@
         <v>3894</v>
       </c>
       <c r="B3894">
-        <v>28.95351365798962</v>
+        <v>28.95351365798961</v>
       </c>
     </row>
     <row r="3895" spans="1:2">
@@ -32087,7 +32087,7 @@
         <v>3968</v>
       </c>
       <c r="B3968">
-        <v>0.2336057526328037</v>
+        <v>0.2336057526328036</v>
       </c>
     </row>
     <row r="3969" spans="1:2">
@@ -32271,7 +32271,7 @@
         <v>3991</v>
       </c>
       <c r="B3991">
-        <v>0.3605858138377594</v>
+        <v>0.3605858138377593</v>
       </c>
     </row>
     <row r="3992" spans="1:2">
@@ -32319,7 +32319,7 @@
         <v>3997</v>
       </c>
       <c r="B3997">
-        <v>0.7053194151943267</v>
+        <v>0.7053194151943266</v>
       </c>
     </row>
     <row r="3998" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>0.4768207184812356</v>
+        <v>0.4768207184812355</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32543,7 +32543,7 @@
         <v>4025</v>
       </c>
       <c r="B4025">
-        <v>0.707432457383075</v>
+        <v>0.7074324573830749</v>
       </c>
     </row>
     <row r="4026" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>1.605739151535898</v>
+        <v>1.605739151535897</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -33031,7 +33031,7 @@
         <v>4086</v>
       </c>
       <c r="B4086">
-        <v>0.8796409997004815</v>
+        <v>0.8796409997004814</v>
       </c>
     </row>
     <row r="4087" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>0.5067667172116519</v>
+        <v>0.5067667172116518</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33127,7 +33127,7 @@
         <v>4098</v>
       </c>
       <c r="B4098">
-        <v>1.875733776613049</v>
+        <v>1.875733776613048</v>
       </c>
     </row>
     <row r="4099" spans="1:2">
@@ -33431,7 +33431,7 @@
         <v>4136</v>
       </c>
       <c r="B4136">
-        <v>0.7592708627014937</v>
+        <v>0.7592708627014936</v>
       </c>
     </row>
     <row r="4137" spans="1:2">
@@ -33439,7 +33439,7 @@
         <v>4137</v>
       </c>
       <c r="B4137">
-        <v>0.4560478432609194</v>
+        <v>0.4560478432609193</v>
       </c>
     </row>
     <row r="4138" spans="1:2">
@@ -33639,7 +33639,7 @@
         <v>4162</v>
       </c>
       <c r="B4162">
-        <v>1.511466990529703</v>
+        <v>1.511466990529702</v>
       </c>
     </row>
     <row r="4163" spans="1:2">
@@ -33807,7 +33807,7 @@
         <v>4183</v>
       </c>
       <c r="B4183">
-        <v>0.586564099618363</v>
+        <v>0.5865640996183629</v>
       </c>
     </row>
     <row r="4184" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>0.6550870391677721</v>
+        <v>0.655087039167772</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -34191,7 +34191,7 @@
         <v>4231</v>
       </c>
       <c r="B4231">
-        <v>2.075564264324287</v>
+        <v>2.075564264324286</v>
       </c>
     </row>
     <row r="4232" spans="1:2">
@@ -34207,7 +34207,7 @@
         <v>4233</v>
       </c>
       <c r="B4233">
-        <v>0.9229774141873346</v>
+        <v>0.9229774141873344</v>
       </c>
     </row>
     <row r="4234" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>0.495339877414246</v>
+        <v>0.4953398774142459</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34991,7 +34991,7 @@
         <v>4331</v>
       </c>
       <c r="B4331">
-        <v>0.7556162668493868</v>
+        <v>0.7556162668493867</v>
       </c>
     </row>
     <row r="4332" spans="1:2">
@@ -34999,7 +34999,7 @@
         <v>4332</v>
       </c>
       <c r="B4332">
-        <v>0.5800872296639472</v>
+        <v>0.5800872296639471</v>
       </c>
     </row>
     <row r="4333" spans="1:2">
@@ -35151,7 +35151,7 @@
         <v>4351</v>
       </c>
       <c r="B4351">
-        <v>0.2932673962572484</v>
+        <v>0.2932673962572483</v>
       </c>
     </row>
     <row r="4352" spans="1:2">
@@ -35943,7 +35943,7 @@
         <v>4450</v>
       </c>
       <c r="B4450">
-        <v>0.5005301655089385</v>
+        <v>0.5005301655089384</v>
       </c>
     </row>
     <row r="4451" spans="1:2">
@@ -36343,7 +36343,7 @@
         <v>4500</v>
       </c>
       <c r="B4500">
-        <v>0.6821462881673741</v>
+        <v>0.682146288167374</v>
       </c>
     </row>
     <row r="4501" spans="1:2">
@@ -36543,7 +36543,7 @@
         <v>4525</v>
       </c>
       <c r="B4525">
-        <v>0.5582710215459967</v>
+        <v>0.5582710215459966</v>
       </c>
     </row>
     <row r="4526" spans="1:2">
@@ -37071,7 +37071,7 @@
         <v>4591</v>
       </c>
       <c r="B4591">
-        <v>2.217252388675501</v>
+        <v>2.2172523886755</v>
       </c>
     </row>
     <row r="4592" spans="1:2">
@@ -37279,7 +37279,7 @@
         <v>4617</v>
       </c>
       <c r="B4617">
-        <v>0.5951833188653931</v>
+        <v>0.595183318865393</v>
       </c>
     </row>
     <row r="4618" spans="1:2">
@@ -37447,7 +37447,7 @@
         <v>4638</v>
       </c>
       <c r="B4638">
-        <v>0.5080591604921484</v>
+        <v>0.5080591604921483</v>
       </c>
     </row>
     <row r="4639" spans="1:2">
@@ -37703,7 +37703,7 @@
         <v>4670</v>
       </c>
       <c r="B4670">
-        <v>0.6276145600036577</v>
+        <v>0.6276145600036576</v>
       </c>
     </row>
     <row r="4671" spans="1:2">
@@ -37711,7 +37711,7 @@
         <v>4671</v>
       </c>
       <c r="B4671">
-        <v>0.2815612597599983</v>
+        <v>0.2815612597599982</v>
       </c>
     </row>
     <row r="4672" spans="1:2">
@@ -38047,7 +38047,7 @@
         <v>4713</v>
       </c>
       <c r="B4713">
-        <v>0.8684368938924583</v>
+        <v>0.8684368938924582</v>
       </c>
     </row>
     <row r="4714" spans="1:2">
@@ -38247,7 +38247,7 @@
         <v>4738</v>
       </c>
       <c r="B4738">
-        <v>0.3950011459077612</v>
+        <v>0.3950011459077611</v>
       </c>
     </row>
     <row r="4739" spans="1:2">
@@ -38791,7 +38791,7 @@
         <v>4806</v>
       </c>
       <c r="B4806">
-        <v>0.5423162342012731</v>
+        <v>0.542316234201273</v>
       </c>
     </row>
     <row r="4807" spans="1:2">
@@ -39039,7 +39039,7 @@
         <v>4837</v>
       </c>
       <c r="B4837">
-        <v>0.8617402206590465</v>
+        <v>0.8617402206590464</v>
       </c>
     </row>
     <row r="4838" spans="1:2">
@@ -39191,7 +39191,7 @@
         <v>4856</v>
       </c>
       <c r="B4856">
-        <v>0.6745469561348855</v>
+        <v>0.6745469561348854</v>
       </c>
     </row>
     <row r="4857" spans="1:2">
@@ -39391,7 +39391,7 @@
         <v>4881</v>
       </c>
       <c r="B4881">
-        <v>0.3803153561604412</v>
+        <v>0.3803153561604411</v>
       </c>
     </row>
     <row r="4882" spans="1:2">
@@ -39759,7 +39759,7 @@
         <v>4927</v>
       </c>
       <c r="B4927">
-        <v>0.7622220880608135</v>
+        <v>0.7622220880608134</v>
       </c>
     </row>
     <row r="4928" spans="1:2">
@@ -39847,7 +39847,7 @@
         <v>4938</v>
       </c>
       <c r="B4938">
-        <v>0.3732171756040634</v>
+        <v>0.3732171756040633</v>
       </c>
     </row>
     <row r="4939" spans="1:2">
@@ -40535,7 +40535,7 @@
         <v>5024</v>
       </c>
       <c r="B5024">
-        <v>0.7478410921937012</v>
+        <v>0.7478410921937011</v>
       </c>
     </row>
     <row r="5025" spans="1:2">
@@ -40583,7 +40583,7 @@
         <v>5030</v>
       </c>
       <c r="B5030">
-        <v>0.3121909932236115</v>
+        <v>0.3121909932236114</v>
       </c>
     </row>
     <row r="5031" spans="1:2">
@@ -40711,7 +40711,7 @@
         <v>5046</v>
       </c>
       <c r="B5046">
-        <v>32.585689575639</v>
+        <v>32.58568957563899</v>
       </c>
     </row>
     <row r="5047" spans="1:2">
@@ -40759,7 +40759,7 @@
         <v>5052</v>
       </c>
       <c r="B5052">
-        <v>0.8959943636577846</v>
+        <v>0.8959943636577845</v>
       </c>
     </row>
     <row r="5053" spans="1:2">
@@ -41119,7 +41119,7 @@
         <v>5097</v>
       </c>
       <c r="B5097">
-        <v>0.7736342743062863</v>
+        <v>0.7736342743062862</v>
       </c>
     </row>
     <row r="5098" spans="1:2">
@@ -41311,7 +41311,7 @@
         <v>5121</v>
       </c>
       <c r="B5121">
-        <v>0.4739281073296481</v>
+        <v>0.473928107329648</v>
       </c>
     </row>
     <row r="5122" spans="1:2">
@@ -42103,7 +42103,7 @@
         <v>5220</v>
       </c>
       <c r="B5220">
-        <v>0.7305792080165481</v>
+        <v>0.730579208016548</v>
       </c>
     </row>
     <row r="5221" spans="1:2">
@@ -42471,7 +42471,7 @@
         <v>5266</v>
       </c>
       <c r="B5266">
-        <v>0.7456547822452877</v>
+        <v>0.7456547822452876</v>
       </c>
     </row>
     <row r="5267" spans="1:2">
@@ -43047,7 +43047,7 @@
         <v>5338</v>
       </c>
       <c r="B5338">
-        <v>0.4018590082124367</v>
+        <v>0.4018590082124366</v>
       </c>
     </row>
     <row r="5339" spans="1:2">
@@ -43055,7 +43055,7 @@
         <v>5339</v>
       </c>
       <c r="B5339">
-        <v>0.6908475673052294</v>
+        <v>0.6908475673052293</v>
       </c>
     </row>
     <row r="5340" spans="1:2">
@@ -43263,7 +43263,7 @@
         <v>5365</v>
       </c>
       <c r="B5365">
-        <v>0.6829082728678936</v>
+        <v>0.6829082728678935</v>
       </c>
     </row>
     <row r="5366" spans="1:2">
@@ -43591,7 +43591,7 @@
         <v>5406</v>
       </c>
       <c r="B5406">
-        <v>0.4556082367029274</v>
+        <v>0.4556082367029273</v>
       </c>
     </row>
     <row r="5407" spans="1:2">
@@ -43975,7 +43975,7 @@
         <v>5454</v>
       </c>
       <c r="B5454">
-        <v>0.3689412691499944</v>
+        <v>0.3689412691499943</v>
       </c>
     </row>
     <row r="5455" spans="1:2">
@@ -44007,7 +44007,7 @@
         <v>5458</v>
       </c>
       <c r="B5458">
-        <v>0.7086252565104266</v>
+        <v>0.7086252565104265</v>
       </c>
     </row>
     <row r="5459" spans="1:2">
@@ -44015,7 +44015,7 @@
         <v>5459</v>
       </c>
       <c r="B5459">
-        <v>0.7147592333496087</v>
+        <v>0.7147592333496086</v>
       </c>
     </row>
     <row r="5460" spans="1:2">
@@ -44191,7 +44191,7 @@
         <v>5481</v>
       </c>
       <c r="B5481">
-        <v>0.9370418933326926</v>
+        <v>0.9370418933326924</v>
       </c>
     </row>
     <row r="5482" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>0.7549949562474247</v>
+        <v>0.7549949562474246</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44215,7 +44215,7 @@
         <v>5484</v>
       </c>
       <c r="B5484">
-        <v>0.8446512483947035</v>
+        <v>0.8446512483947034</v>
       </c>
     </row>
     <row r="5485" spans="1:2">
@@ -44223,7 +44223,7 @@
         <v>5485</v>
       </c>
       <c r="B5485">
-        <v>0.2742412244273539</v>
+        <v>0.2742412244273538</v>
       </c>
     </row>
     <row r="5486" spans="1:2">
@@ -44391,7 +44391,7 @@
         <v>5506</v>
       </c>
       <c r="B5506">
-        <v>0.4899327167509442</v>
+        <v>0.4899327167509441</v>
       </c>
     </row>
     <row r="5507" spans="1:2">
@@ -44623,7 +44623,7 @@
         <v>5535</v>
       </c>
       <c r="B5535">
-        <v>0.1306460868275705</v>
+        <v>0.1306460868275704</v>
       </c>
     </row>
     <row r="5536" spans="1:2">
@@ -44759,7 +44759,7 @@
         <v>5552</v>
       </c>
       <c r="B5552">
-        <v>1.819719108993706</v>
+        <v>1.819719108993705</v>
       </c>
     </row>
     <row r="5553" spans="1:2">
@@ -44791,7 +44791,7 @@
         <v>5556</v>
       </c>
       <c r="B5556">
-        <v>0.3467997521791297</v>
+        <v>0.3467997521791296</v>
       </c>
     </row>
     <row r="5557" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>6.633868109826614</v>
+        <v>6.633868109826613</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45759,7 +45759,7 @@
         <v>5677</v>
       </c>
       <c r="B5677">
-        <v>0.7906968701771497</v>
+        <v>0.7906968701771496</v>
       </c>
     </row>
     <row r="5678" spans="1:2">
@@ -45783,7 +45783,7 @@
         <v>5680</v>
       </c>
       <c r="B5680">
-        <v>0.6984967214142905</v>
+        <v>0.6984967214142904</v>
       </c>
     </row>
     <row r="5681" spans="1:2">
@@ -45927,7 +45927,7 @@
         <v>5698</v>
       </c>
       <c r="B5698">
-        <v>0.856974885570413</v>
+        <v>0.8569748855704129</v>
       </c>
     </row>
     <row r="5699" spans="1:2">
@@ -46119,7 +46119,7 @@
         <v>5722</v>
       </c>
       <c r="B5722">
-        <v>1.084043395614837</v>
+        <v>1.084043395614836</v>
       </c>
     </row>
     <row r="5723" spans="1:2">
@@ -46855,7 +46855,7 @@
         <v>5814</v>
       </c>
       <c r="B5814">
-        <v>0.3213729088648714</v>
+        <v>0.3213729088648713</v>
       </c>
     </row>
     <row r="5815" spans="1:2">
@@ -46895,7 +46895,7 @@
         <v>5819</v>
       </c>
       <c r="B5819">
-        <v>0.517038857116732</v>
+        <v>0.5170388571167319</v>
       </c>
     </row>
     <row r="5820" spans="1:2">
@@ -47063,7 +47063,7 @@
         <v>5840</v>
       </c>
       <c r="B5840">
-        <v>0.6229312848058494</v>
+        <v>0.6229312848058493</v>
       </c>
     </row>
     <row r="5841" spans="1:2">
@@ -47095,7 +47095,7 @@
         <v>5844</v>
       </c>
       <c r="B5844">
-        <v>0.964962771185959</v>
+        <v>0.9649627711859587</v>
       </c>
     </row>
     <row r="5845" spans="1:2">
@@ -47111,7 +47111,7 @@
         <v>5846</v>
       </c>
       <c r="B5846">
-        <v>0.6635978221304976</v>
+        <v>0.6635978221304975</v>
       </c>
     </row>
     <row r="5847" spans="1:2">
@@ -47119,7 +47119,7 @@
         <v>5847</v>
       </c>
       <c r="B5847">
-        <v>0.5134428754723573</v>
+        <v>0.5134428754723572</v>
       </c>
     </row>
     <row r="5848" spans="1:2">
@@ -47287,7 +47287,7 @@
         <v>5868</v>
       </c>
       <c r="B5868">
-        <v>0.745613752299875</v>
+        <v>0.7456137522998749</v>
       </c>
     </row>
     <row r="5869" spans="1:2">
@@ -47655,7 +47655,7 @@
         <v>5914</v>
       </c>
       <c r="B5914">
-        <v>0.8706583723655112</v>
+        <v>0.8706583723655111</v>
       </c>
     </row>
     <row r="5915" spans="1:2">
@@ -47671,7 +47671,7 @@
         <v>5916</v>
       </c>
       <c r="B5916">
-        <v>0.7923322065728802</v>
+        <v>0.7923322065728801</v>
       </c>
     </row>
     <row r="5917" spans="1:2">
@@ -47687,7 +47687,7 @@
         <v>5918</v>
       </c>
       <c r="B5918">
-        <v>0.3188378443804508</v>
+        <v>0.3188378443804507</v>
       </c>
     </row>
     <row r="5919" spans="1:2">
@@ -48007,7 +48007,7 @@
         <v>5958</v>
       </c>
       <c r="B5958">
-        <v>32.06871226344039</v>
+        <v>32.06871226344038</v>
       </c>
     </row>
     <row r="5959" spans="1:2">
@@ -48055,7 +48055,7 @@
         <v>5964</v>
       </c>
       <c r="B5964">
-        <v>0.968799071082036</v>
+        <v>0.9687990710820358</v>
       </c>
     </row>
     <row r="5965" spans="1:2">
@@ -48215,7 +48215,7 @@
         <v>5984</v>
       </c>
       <c r="B5984">
-        <v>1.896445106915246</v>
+        <v>1.896445106915245</v>
       </c>
     </row>
     <row r="5985" spans="1:2">
@@ -48431,7 +48431,7 @@
         <v>6011</v>
       </c>
       <c r="B6011">
-        <v>0.6269991108224687</v>
+        <v>0.6269991108224686</v>
       </c>
     </row>
     <row r="6012" spans="1:2">
@@ -48463,7 +48463,7 @@
         <v>6015</v>
       </c>
       <c r="B6015">
-        <v>0.8857163623319312</v>
+        <v>0.8857163623319311</v>
       </c>
     </row>
     <row r="6016" spans="1:2">
@@ -48639,7 +48639,7 @@
         <v>6037</v>
       </c>
       <c r="B6037">
-        <v>0.7220098108460903</v>
+        <v>0.7220098108460902</v>
       </c>
     </row>
     <row r="6038" spans="1:2">
@@ -48655,7 +48655,7 @@
         <v>6039</v>
       </c>
       <c r="B6039">
-        <v>0.6477690553323984</v>
+        <v>0.6477690553323983</v>
       </c>
     </row>
     <row r="6040" spans="1:2">
@@ -48799,7 +48799,7 @@
         <v>6057</v>
       </c>
       <c r="B6057">
-        <v>0.9688342396066754</v>
+        <v>0.9688342396066753</v>
       </c>
     </row>
     <row r="6058" spans="1:2">
@@ -48815,7 +48815,7 @@
         <v>6059</v>
       </c>
       <c r="B6059">
-        <v>0.8365624877276503</v>
+        <v>0.8365624877276502</v>
       </c>
     </row>
     <row r="6060" spans="1:2">
@@ -48967,7 +48967,7 @@
         <v>6078</v>
       </c>
       <c r="B6078">
-        <v>7.075408936673797</v>
+        <v>7.075408936673796</v>
       </c>
     </row>
     <row r="6079" spans="1:2">
@@ -49015,7 +49015,7 @@
         <v>6084</v>
       </c>
       <c r="B6084">
-        <v>0.6655613980895285</v>
+        <v>0.6655613980895284</v>
       </c>
     </row>
     <row r="6085" spans="1:2">
@@ -49215,7 +49215,7 @@
         <v>6109</v>
       </c>
       <c r="B6109">
-        <v>0.0607193370029735</v>
+        <v>0.0607193370029734</v>
       </c>
     </row>
     <row r="6110" spans="1:2">
@@ -49567,7 +49567,7 @@
         <v>6153</v>
       </c>
       <c r="B6153">
-        <v>1.595965232396542</v>
+        <v>1.595965232396541</v>
       </c>
     </row>
     <row r="6154" spans="1:2">
@@ -49767,7 +49767,7 @@
         <v>6178</v>
       </c>
       <c r="B6178">
-        <v>0.7761781309218667</v>
+        <v>0.7761781309218666</v>
       </c>
     </row>
     <row r="6179" spans="1:2">
@@ -49783,7 +49783,7 @@
         <v>6180</v>
       </c>
       <c r="B6180">
-        <v>0.4201378488937448</v>
+        <v>0.4201378488937447</v>
       </c>
     </row>
     <row r="6181" spans="1:2">
@@ -49951,7 +49951,7 @@
         <v>6201</v>
       </c>
       <c r="B6201">
-        <v>0.9890297648808286</v>
+        <v>0.9890297648808284</v>
       </c>
     </row>
     <row r="6202" spans="1:2">
@@ -49991,7 +49991,7 @@
         <v>6206</v>
       </c>
       <c r="B6206">
-        <v>0.7235601566406088</v>
+        <v>0.7235601566406087</v>
       </c>
     </row>
     <row r="6207" spans="1:2">
@@ -50127,7 +50127,7 @@
         <v>6223</v>
       </c>
       <c r="B6223">
-        <v>6.32183537496388</v>
+        <v>6.321835374963879</v>
       </c>
     </row>
     <row r="6224" spans="1:2">
@@ -50183,7 +50183,7 @@
         <v>6230</v>
       </c>
       <c r="B6230">
-        <v>0.0760648296583202</v>
+        <v>0.07606482965832009</v>
       </c>
     </row>
     <row r="6231" spans="1:2">
@@ -50319,7 +50319,7 @@
         <v>6247</v>
       </c>
       <c r="B6247">
-        <v>1.093087567867926</v>
+        <v>1.093087567867925</v>
       </c>
     </row>
     <row r="6248" spans="1:2">
@@ -50551,7 +50551,7 @@
         <v>6276</v>
       </c>
       <c r="B6276">
-        <v>0.6430037202437648</v>
+        <v>0.6430037202437647</v>
       </c>
     </row>
     <row r="6277" spans="1:2">
@@ -50695,7 +50695,7 @@
         <v>6294</v>
       </c>
       <c r="B6294">
-        <v>0.3953205933399021</v>
+        <v>0.395320593339902</v>
       </c>
     </row>
     <row r="6295" spans="1:2">
@@ -52095,7 +52095,7 @@
         <v>6469</v>
       </c>
       <c r="B6469">
-        <v>0.7886512343272936</v>
+        <v>0.7886512343272934</v>
       </c>
     </row>
     <row r="6470" spans="1:2">
@@ -52231,7 +52231,7 @@
         <v>6486</v>
       </c>
       <c r="B6486">
-        <v>47.5331917604836</v>
+        <v>47.53319176048359</v>
       </c>
     </row>
     <row r="6487" spans="1:2">
@@ -52279,7 +52279,7 @@
         <v>6492</v>
       </c>
       <c r="B6492">
-        <v>0.377572211238571</v>
+        <v>0.3775722112385709</v>
       </c>
     </row>
     <row r="6493" spans="1:2">
@@ -52471,7 +52471,7 @@
         <v>6516</v>
       </c>
       <c r="B6516">
-        <v>0.8384762416101089</v>
+        <v>0.8384762416101088</v>
       </c>
     </row>
     <row r="6517" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>6.978255887357561</v>
+        <v>6.97825588735756</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>0.7555254148274018</v>
+        <v>0.7555254148274017</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -53055,7 +53055,7 @@
         <v>6589</v>
       </c>
       <c r="B6589">
-        <v>0.8744858801304284</v>
+        <v>0.8744858801304283</v>
       </c>
     </row>
     <row r="6590" spans="1:2">
@@ -53199,7 +53199,7 @@
         <v>6607</v>
       </c>
       <c r="B6607">
-        <v>20.9248911680698</v>
+        <v>20.92489116806979</v>
       </c>
     </row>
     <row r="6608" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>6.728442134002631</v>
+        <v>6.72844213400263</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53439,7 +53439,7 @@
         <v>6637</v>
       </c>
       <c r="B6637">
-        <v>0.4783124500680218</v>
+        <v>0.4783124500680217</v>
       </c>
     </row>
     <row r="6638" spans="1:2">
@@ -53615,7 +53615,7 @@
         <v>6659</v>
       </c>
       <c r="B6659">
-        <v>0.7392394572089908</v>
+        <v>0.7392394572089906</v>
       </c>
     </row>
     <row r="6660" spans="1:2">
@@ -54175,7 +54175,7 @@
         <v>6729</v>
       </c>
       <c r="B6729">
-        <v>6.205251715784397</v>
+        <v>6.205251715784396</v>
       </c>
     </row>
     <row r="6730" spans="1:2">
@@ -54191,7 +54191,7 @@
         <v>6731</v>
       </c>
       <c r="B6731">
-        <v>0.855990166880511</v>
+        <v>0.8559901668805109</v>
       </c>
     </row>
     <row r="6732" spans="1:2">
@@ -54279,7 +54279,7 @@
         <v>6742</v>
       </c>
       <c r="B6742">
-        <v>0.8199043298901395</v>
+        <v>0.8199043298901394</v>
       </c>
     </row>
     <row r="6743" spans="1:2">
@@ -54303,7 +54303,7 @@
         <v>6745</v>
       </c>
       <c r="B6745">
-        <v>57.77221463819502</v>
+        <v>57.77221463819501</v>
       </c>
     </row>
     <row r="6746" spans="1:2">
@@ -54311,7 +54311,7 @@
         <v>6746</v>
       </c>
       <c r="B6746">
-        <v>63.35140800119105</v>
+        <v>63.35140800119104</v>
       </c>
     </row>
     <row r="6747" spans="1:2">
@@ -54391,7 +54391,7 @@
         <v>6756</v>
       </c>
       <c r="B6756">
-        <v>8.352817672887003</v>
+        <v>8.352817672887001</v>
       </c>
     </row>
     <row r="6757" spans="1:2">
@@ -54431,7 +54431,7 @@
         <v>6761</v>
       </c>
       <c r="B6761">
-        <v>0.4829957252658301</v>
+        <v>0.48299572526583</v>
       </c>
     </row>
     <row r="6762" spans="1:2">
@@ -54767,7 +54767,7 @@
         <v>6803</v>
       </c>
       <c r="B6803">
-        <v>0.8684368938924583</v>
+        <v>0.8684368938924582</v>
       </c>
     </row>
     <row r="6804" spans="1:2">
@@ -54791,7 +54791,7 @@
         <v>6806</v>
       </c>
       <c r="B6806">
-        <v>0.6534868712966811</v>
+        <v>0.653486871296681</v>
       </c>
     </row>
     <row r="6807" spans="1:2">
@@ -54927,7 +54927,7 @@
         <v>6823</v>
       </c>
       <c r="B6823">
-        <v>31.29090172683318</v>
+        <v>31.29090172683317</v>
       </c>
     </row>
     <row r="6824" spans="1:2">
@@ -55175,7 +55175,7 @@
         <v>6854</v>
       </c>
       <c r="B6854">
-        <v>0.7612608150540043</v>
+        <v>0.7612608150540042</v>
       </c>
     </row>
     <row r="6855" spans="1:2">
@@ -55743,7 +55743,7 @@
         <v>6925</v>
       </c>
       <c r="B6925">
-        <v>0.8450556864280561</v>
+        <v>0.845055686428056</v>
       </c>
     </row>
     <row r="6926" spans="1:2">
@@ -55791,7 +55791,7 @@
         <v>6931</v>
       </c>
       <c r="B6931">
-        <v>0.4835554909496733</v>
+        <v>0.4835554909496732</v>
       </c>
     </row>
     <row r="6932" spans="1:2">
@@ -55799,7 +55799,7 @@
         <v>6932</v>
       </c>
       <c r="B6932">
-        <v>0.591939022467412</v>
+        <v>0.5919390224674119</v>
       </c>
     </row>
     <row r="6933" spans="1:2">
@@ -55935,7 +55935,7 @@
         <v>6949</v>
       </c>
       <c r="B6949">
-        <v>0.8519194101535048</v>
+        <v>0.8519194101535047</v>
       </c>
     </row>
     <row r="6950" spans="1:2">
@@ -55951,7 +55951,7 @@
         <v>6951</v>
       </c>
       <c r="B6951">
-        <v>0.4246540735995161</v>
+        <v>0.424654073599516</v>
       </c>
     </row>
     <row r="6952" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>17.28647283729693</v>
+        <v>17.28647283729692</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56327,7 +56327,7 @@
         <v>6998</v>
       </c>
       <c r="B6998">
-        <v>0.7266256797050065</v>
+        <v>0.7266256797050064</v>
       </c>
     </row>
     <row r="6999" spans="1:2">
@@ -56335,7 +56335,7 @@
         <v>6999</v>
       </c>
       <c r="B6999">
-        <v>0.5256170464183496</v>
+        <v>0.5256170464183495</v>
       </c>
     </row>
     <row r="7000" spans="1:2">
@@ -56727,7 +56727,7 @@
         <v>7048</v>
       </c>
       <c r="B7048">
-        <v>0.5095684763412544</v>
+        <v>0.5095684763412542</v>
       </c>
     </row>
     <row r="7049" spans="1:2">
@@ -56735,7 +56735,7 @@
         <v>7049</v>
       </c>
       <c r="B7049">
-        <v>0.0857437937811498</v>
+        <v>0.0857437937811497</v>
       </c>
     </row>
     <row r="7050" spans="1:2">
@@ -57047,7 +57047,7 @@
         <v>7088</v>
       </c>
       <c r="B7088">
-        <v>11.96134275771642</v>
+        <v>11.96134275771641</v>
       </c>
     </row>
     <row r="7089" spans="1:2">
@@ -57087,7 +57087,7 @@
         <v>7093</v>
       </c>
       <c r="B7093">
-        <v>0.8442438796509641</v>
+        <v>0.844243879650964</v>
       </c>
     </row>
     <row r="7094" spans="1:2">
@@ -57255,7 +57255,7 @@
         <v>7114</v>
       </c>
       <c r="B7114">
-        <v>0.9437385665661044</v>
+        <v>0.9437385665661042</v>
       </c>
     </row>
     <row r="7115" spans="1:2">
@@ -57607,7 +57607,7 @@
         <v>7158</v>
       </c>
       <c r="B7158">
-        <v>85.74408685218846</v>
+        <v>85.74408685218845</v>
       </c>
     </row>
     <row r="7159" spans="1:2">
@@ -57735,7 +57735,7 @@
         <v>7174</v>
       </c>
       <c r="B7174">
-        <v>0.526918281830006</v>
+        <v>0.5269182818300059</v>
       </c>
     </row>
     <row r="7175" spans="1:2">
@@ -57839,7 +57839,7 @@
         <v>7187</v>
       </c>
       <c r="B7187">
-        <v>0.7636639975710273</v>
+        <v>0.7636639975710272</v>
       </c>
     </row>
     <row r="7188" spans="1:2">
@@ -57919,7 +57919,7 @@
         <v>7197</v>
       </c>
       <c r="B7197">
-        <v>6.596765316332087</v>
+        <v>6.596765316332086</v>
       </c>
     </row>
     <row r="7198" spans="1:2">
@@ -58015,7 +58015,7 @@
         <v>7209</v>
       </c>
       <c r="B7209">
-        <v>21.90641538365051</v>
+        <v>21.9064153836505</v>
       </c>
     </row>
     <row r="7210" spans="1:2">
@@ -58151,7 +58151,7 @@
         <v>7226</v>
       </c>
       <c r="B7226">
-        <v>72.59076556602862</v>
+        <v>72.59076556602861</v>
       </c>
     </row>
     <row r="7227" spans="1:2">
@@ -58167,7 +58167,7 @@
         <v>7228</v>
       </c>
       <c r="B7228">
-        <v>83.14835666276493</v>
+        <v>83.14835666276491</v>
       </c>
     </row>
     <row r="7229" spans="1:2">
@@ -58263,7 +58263,7 @@
         <v>7240</v>
       </c>
       <c r="B7240">
-        <v>0.6937401784568169</v>
+        <v>0.6937401784568168</v>
       </c>
     </row>
     <row r="7241" spans="1:2">
@@ -58295,7 +58295,7 @@
         <v>7244</v>
       </c>
       <c r="B7244">
-        <v>0.9002028637729614</v>
+        <v>0.9002028637729613</v>
       </c>
     </row>
     <row r="7245" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>9.047015042164132</v>
+        <v>9.04701504216413</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58447,7 +58447,7 @@
         <v>7263</v>
       </c>
       <c r="B7263">
-        <v>0.4597610533207587</v>
+        <v>0.4597610533207586</v>
       </c>
     </row>
     <row r="7264" spans="1:2">
@@ -58487,7 +58487,7 @@
         <v>7268</v>
       </c>
       <c r="B7268">
-        <v>0.5119130446505451</v>
+        <v>0.511913044650545</v>
       </c>
     </row>
     <row r="7269" spans="1:2">
@@ -58543,7 +58543,7 @@
         <v>7275</v>
       </c>
       <c r="B7275">
-        <v>7.300868486715969</v>
+        <v>7.300868486715968</v>
       </c>
     </row>
     <row r="7276" spans="1:2">
@@ -58567,7 +58567,7 @@
         <v>7278</v>
       </c>
       <c r="B7278">
-        <v>252.6665068452603</v>
+        <v>252.6665068452602</v>
       </c>
     </row>
     <row r="7279" spans="1:2">
@@ -58679,7 +58679,7 @@
         <v>7292</v>
       </c>
       <c r="B7292">
-        <v>0.5806469953477904</v>
+        <v>0.5806469953477903</v>
       </c>
     </row>
     <row r="7293" spans="1:2">
@@ -58703,7 +58703,7 @@
         <v>7295</v>
       </c>
       <c r="B7295">
-        <v>0.4657279796679037</v>
+        <v>0.4657279796679036</v>
       </c>
     </row>
     <row r="7296" spans="1:2">
@@ -58727,7 +58727,7 @@
         <v>7298</v>
       </c>
       <c r="B7298">
-        <v>0.8713705349894583</v>
+        <v>0.8713705349894582</v>
       </c>
     </row>
     <row r="7299" spans="1:2">
@@ -58759,7 +58759,7 @@
         <v>7302</v>
       </c>
       <c r="B7302">
-        <v>264.7975963485694</v>
+        <v>264.7975963485693</v>
       </c>
     </row>
     <row r="7303" spans="1:2">
@@ -58823,7 +58823,7 @@
         <v>7310</v>
       </c>
       <c r="B7310">
-        <v>0.8150071128341084</v>
+        <v>0.8150071128341083</v>
       </c>
     </row>
     <row r="7311" spans="1:2">
@@ -58919,7 +58919,7 @@
         <v>7322</v>
       </c>
       <c r="B7322">
-        <v>4.09552122977297</v>
+        <v>4.095521229772969</v>
       </c>
     </row>
     <row r="7323" spans="1:2">
@@ -59159,7 +59159,7 @@
         <v>7352</v>
       </c>
       <c r="B7352">
-        <v>11.8890128253748</v>
+        <v>11.88901282537479</v>
       </c>
     </row>
     <row r="7353" spans="1:2">
@@ -59343,7 +59343,7 @@
         <v>7375</v>
       </c>
       <c r="B7375">
-        <v>7.514575888107823</v>
+        <v>7.514575888107822</v>
       </c>
     </row>
     <row r="7376" spans="1:2">
@@ -59463,7 +59463,7 @@
         <v>7390</v>
       </c>
       <c r="B7390">
-        <v>0.4000273142208033</v>
+        <v>0.4000273142208032</v>
       </c>
     </row>
     <row r="7391" spans="1:2">
@@ -59519,7 +59519,7 @@
         <v>7397</v>
       </c>
       <c r="B7397">
-        <v>24.47043528669089</v>
+        <v>24.47043528669088</v>
       </c>
     </row>
     <row r="7398" spans="1:2">
@@ -59551,7 +59551,7 @@
         <v>7401</v>
       </c>
       <c r="B7401">
-        <v>89.17038036517825</v>
+        <v>89.17038036517823</v>
       </c>
     </row>
     <row r="7402" spans="1:2">
@@ -59559,7 +59559,7 @@
         <v>7402</v>
       </c>
       <c r="B7402">
-        <v>52.36593318800918</v>
+        <v>52.36593318800917</v>
       </c>
     </row>
     <row r="7403" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>33.29140463673552</v>
+        <v>33.29140463673551</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59583,7 +59583,7 @@
         <v>7405</v>
       </c>
       <c r="B7405">
-        <v>15.95109464963651</v>
+        <v>15.9510946496365</v>
       </c>
     </row>
     <row r="7406" spans="1:2">
@@ -59607,7 +59607,7 @@
         <v>7408</v>
       </c>
       <c r="B7408">
-        <v>7.879420024137332</v>
+        <v>7.879420024137331</v>
       </c>
     </row>
     <row r="7409" spans="1:2">
@@ -59663,7 +59663,7 @@
         <v>7415</v>
       </c>
       <c r="B7415">
-        <v>7.720604828286748</v>
+        <v>7.720604828286747</v>
       </c>
     </row>
     <row r="7416" spans="1:2">
@@ -59727,7 +59727,7 @@
         <v>7423</v>
       </c>
       <c r="B7423">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7424" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>100.3777099546268</v>
+        <v>100.3777099546267</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59751,7 +59751,7 @@
         <v>7426</v>
       </c>
       <c r="B7426">
-        <v>61.12992952813805</v>
+        <v>61.12992952813804</v>
       </c>
     </row>
     <row r="7427" spans="1:2">
@@ -59767,7 +59767,7 @@
         <v>7428</v>
       </c>
       <c r="B7428">
-        <v>20.79643813182453</v>
+        <v>20.79643813182452</v>
       </c>
     </row>
     <row r="7429" spans="1:2">
@@ -59799,7 +59799,7 @@
         <v>7432</v>
       </c>
       <c r="B7432">
-        <v>2.634664676909696</v>
+        <v>2.634664676909695</v>
       </c>
     </row>
     <row r="7433" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>9.412533241582562</v>
+        <v>9.41253324158256</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60015,7 +60015,7 @@
         <v>7459</v>
       </c>
       <c r="B7459">
-        <v>0.8798901100833436</v>
+        <v>0.8798901100833435</v>
       </c>
     </row>
     <row r="7460" spans="1:2">
@@ -60175,7 +60175,7 @@
         <v>7479</v>
       </c>
       <c r="B7479">
-        <v>0.4416023717653017</v>
+        <v>0.4416023717653016</v>
       </c>
     </row>
     <row r="7480" spans="1:2">
@@ -60191,7 +60191,7 @@
         <v>7481</v>
       </c>
       <c r="B7481">
-        <v>0.5126046923017858</v>
+        <v>0.5126046923017857</v>
       </c>
     </row>
     <row r="7482" spans="1:2">
@@ -60343,7 +60343,7 @@
         <v>7500</v>
       </c>
       <c r="B7500">
-        <v>11.59535564463613</v>
+        <v>11.59535564463612</v>
       </c>
     </row>
     <row r="7501" spans="1:2">
@@ -60351,7 +60351,7 @@
         <v>7501</v>
       </c>
       <c r="B7501">
-        <v>8.378988916639461</v>
+        <v>8.378988916639459</v>
       </c>
     </row>
     <row r="7502" spans="1:2">
@@ -60519,7 +60519,7 @@
         <v>7522</v>
       </c>
       <c r="B7522">
-        <v>0.8212964173237809</v>
+        <v>0.8212964173237808</v>
       </c>
     </row>
     <row r="7523" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>0.1758449677651165</v>
+        <v>0.1758449677651164</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60735,7 +60735,7 @@
         <v>7549</v>
       </c>
       <c r="B7549">
-        <v>0.9635472380692248</v>
+        <v>0.9635472380692246</v>
       </c>
     </row>
     <row r="7550" spans="1:2">
@@ -60775,7 +60775,7 @@
         <v>7554</v>
       </c>
       <c r="B7554">
-        <v>0.4657572867717698</v>
+        <v>0.4657572867717697</v>
       </c>
     </row>
     <row r="7555" spans="1:2">
@@ -60831,7 +60831,7 @@
         <v>7561</v>
       </c>
       <c r="B7561">
-        <v>8.009660793718433</v>
+        <v>8.009660793718432</v>
       </c>
     </row>
     <row r="7562" spans="1:2">
@@ -60919,7 +60919,7 @@
         <v>7572</v>
       </c>
       <c r="B7572">
-        <v>4.764221418686562</v>
+        <v>4.764221418686561</v>
       </c>
     </row>
     <row r="7573" spans="1:2">
@@ -60943,7 +60943,7 @@
         <v>7575</v>
       </c>
       <c r="B7575">
-        <v>0.0476999491814819</v>
+        <v>0.0476999491814818</v>
       </c>
     </row>
     <row r="7576" spans="1:2">
@@ -61007,7 +61007,7 @@
         <v>7583</v>
       </c>
       <c r="B7583">
-        <v>19.09516075239542</v>
+        <v>19.09516075239541</v>
       </c>
     </row>
     <row r="7584" spans="1:2">
@@ -61039,7 +61039,7 @@
         <v>7587</v>
       </c>
       <c r="B7587">
-        <v>82.36292627915252</v>
+        <v>82.3629262791525</v>
       </c>
     </row>
     <row r="7588" spans="1:2">
@@ -61135,7 +61135,7 @@
         <v>7599</v>
       </c>
       <c r="B7599">
-        <v>24.73343723678558</v>
+        <v>24.73343723678557</v>
       </c>
     </row>
     <row r="7600" spans="1:2">
@@ -61151,7 +61151,7 @@
         <v>7601</v>
       </c>
       <c r="B7601">
-        <v>50.16731425597177</v>
+        <v>50.16731425597176</v>
       </c>
     </row>
     <row r="7602" spans="1:2">
@@ -61175,7 +61175,7 @@
         <v>7604</v>
       </c>
       <c r="B7604">
-        <v>0.7186277710599384</v>
+        <v>0.7186277710599382</v>
       </c>
     </row>
     <row r="7605" spans="1:2">
@@ -61207,7 +61207,7 @@
         <v>7608</v>
       </c>
       <c r="B7608">
-        <v>2.951694272981606</v>
+        <v>2.951694272981605</v>
       </c>
     </row>
     <row r="7609" spans="1:2">
@@ -61455,7 +61455,7 @@
         <v>7639</v>
       </c>
       <c r="B7639">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7640" spans="1:2">
@@ -61487,7 +61487,7 @@
         <v>7643</v>
       </c>
       <c r="B7643">
-        <v>52.83220921051938</v>
+        <v>52.83220921051937</v>
       </c>
     </row>
     <row r="7644" spans="1:2">
@@ -61495,7 +61495,7 @@
         <v>7644</v>
       </c>
       <c r="B7644">
-        <v>42.03517907519676</v>
+        <v>42.03517907519675</v>
       </c>
     </row>
     <row r="7645" spans="1:2">
@@ -61511,7 +61511,7 @@
         <v>7646</v>
       </c>
       <c r="B7646">
-        <v>36.03777334003099</v>
+        <v>36.03777334003098</v>
       </c>
     </row>
     <row r="7647" spans="1:2">
@@ -61559,7 +61559,7 @@
         <v>7652</v>
       </c>
       <c r="B7652">
-        <v>0.933346267535173</v>
+        <v>0.9333462675351728</v>
       </c>
     </row>
     <row r="7653" spans="1:2">
@@ -61639,7 +61639,7 @@
         <v>7662</v>
       </c>
       <c r="B7662">
-        <v>83.72599967996643</v>
+        <v>83.72599967996642</v>
       </c>
     </row>
     <row r="7663" spans="1:2">
@@ -61855,7 +61855,7 @@
         <v>7689</v>
       </c>
       <c r="B7689">
-        <v>25.85733536294797</v>
+        <v>25.85733536294796</v>
       </c>
     </row>
     <row r="7690" spans="1:2">
@@ -61911,7 +61911,7 @@
         <v>7696</v>
       </c>
       <c r="B7696">
-        <v>0.4121194252759704</v>
+        <v>0.4121194252759703</v>
       </c>
     </row>
     <row r="7697" spans="1:2">
@@ -61959,7 +61959,7 @@
         <v>7702</v>
       </c>
       <c r="B7702">
-        <v>54.15689030526866</v>
+        <v>54.15689030526865</v>
       </c>
     </row>
     <row r="7703" spans="1:2">
@@ -61991,7 +61991,7 @@
         <v>7706</v>
       </c>
       <c r="B7706">
-        <v>79.73407906236025</v>
+        <v>79.73407906236024</v>
       </c>
     </row>
     <row r="7707" spans="1:2">
@@ -62135,7 +62135,7 @@
         <v>7724</v>
       </c>
       <c r="B7724">
-        <v>75.65746091458094</v>
+        <v>75.65746091458092</v>
       </c>
     </row>
     <row r="7725" spans="1:2">
@@ -62175,7 +62175,7 @@
         <v>7729</v>
       </c>
       <c r="B7729">
-        <v>83.70343320998951</v>
+        <v>83.7034332099895</v>
       </c>
     </row>
     <row r="7730" spans="1:2">
@@ -62375,7 +62375,7 @@
         <v>7754</v>
       </c>
       <c r="B7754">
-        <v>88.99951994963868</v>
+        <v>88.99951994963867</v>
       </c>
     </row>
     <row r="7755" spans="1:2">
@@ -62463,7 +62463,7 @@
         <v>7765</v>
       </c>
       <c r="B7765">
-        <v>58.46767221293839</v>
+        <v>58.46767221293838</v>
       </c>
     </row>
     <row r="7766" spans="1:2">
@@ -62487,7 +62487,7 @@
         <v>7768</v>
       </c>
       <c r="B7768">
-        <v>76.99796784541793</v>
+        <v>76.99796784541792</v>
       </c>
     </row>
     <row r="7769" spans="1:2">
@@ -62591,7 +62591,7 @@
         <v>7781</v>
       </c>
       <c r="B7781">
-        <v>88.39139754441639</v>
+        <v>88.39139754441638</v>
       </c>
     </row>
     <row r="7782" spans="1:2">
@@ -62663,7 +62663,7 @@
         <v>7790</v>
       </c>
       <c r="B7790">
-        <v>84.15710717783728</v>
+        <v>84.15710717783726</v>
       </c>
     </row>
     <row r="7791" spans="1:2">
@@ -62671,7 +62671,7 @@
         <v>7791</v>
       </c>
       <c r="B7791">
-        <v>76.47542218348475</v>
+        <v>76.47542218348474</v>
       </c>
     </row>
     <row r="7792" spans="1:2">
@@ -62711,7 +62711,7 @@
         <v>7796</v>
       </c>
       <c r="B7796">
-        <v>9.879600555897149</v>
+        <v>9.879600555897143</v>
       </c>
     </row>
     <row r="7797" spans="1:2">
@@ -62751,7 +62751,7 @@
         <v>7801</v>
       </c>
       <c r="B7801">
-        <v>21.37674809547786</v>
+        <v>21.37674809547785</v>
       </c>
     </row>
     <row r="7802" spans="1:2">
@@ -62943,7 +62943,7 @@
         <v>7825</v>
       </c>
       <c r="B7825">
-        <v>231.1246132194968</v>
+        <v>231.1246132194967</v>
       </c>
     </row>
     <row r="7826" spans="1:2">
@@ -63063,7 +63063,7 @@
         <v>7840</v>
       </c>
       <c r="B7840">
-        <v>91.72830439061448</v>
+        <v>91.72830439061444</v>
       </c>
     </row>
     <row r="7841" spans="1:2">
@@ -63071,7 +63071,7 @@
         <v>7841</v>
       </c>
       <c r="B7841">
-        <v>114.2675187609426</v>
+        <v>114.2675187609425</v>
       </c>
     </row>
     <row r="7842" spans="1:2">
@@ -63079,7 +63079,7 @@
         <v>7842</v>
       </c>
       <c r="B7842">
-        <v>147.7561602066972</v>
+        <v>147.7561602066971</v>
       </c>
     </row>
     <row r="7843" spans="1:2">
@@ -63439,7 +63439,7 @@
         <v>7887</v>
       </c>
       <c r="B7887">
-        <v>88.92859675828264</v>
+        <v>88.92859675828262</v>
       </c>
     </row>
     <row r="7888" spans="1:2">
@@ -63519,7 +63519,7 @@
         <v>7897</v>
       </c>
       <c r="B7897">
-        <v>60.51829027045182</v>
+        <v>60.51829027045181</v>
       </c>
     </row>
     <row r="7898" spans="1:2">
@@ -63847,7 +63847,7 @@
         <v>7938</v>
       </c>
       <c r="B7938">
-        <v>53.20177179027134</v>
+        <v>53.20177179027133</v>
       </c>
     </row>
     <row r="7939" spans="1:2">
@@ -63863,7 +63863,7 @@
         <v>7940</v>
       </c>
       <c r="B7940">
-        <v>0.8051511338039273</v>
+        <v>0.8051511338039272</v>
       </c>
     </row>
     <row r="7941" spans="1:2">
@@ -63951,7 +63951,7 @@
         <v>7951</v>
       </c>
       <c r="B7951">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="7952" spans="1:2">
@@ -63991,7 +63991,7 @@
         <v>7956</v>
       </c>
       <c r="B7956">
-        <v>22.68958912026522</v>
+        <v>22.68958912026521</v>
       </c>
     </row>
     <row r="7957" spans="1:2">
@@ -63999,7 +63999,7 @@
         <v>7957</v>
       </c>
       <c r="B7957">
-        <v>14.60683640950465</v>
+        <v>14.60683640950464</v>
       </c>
     </row>
     <row r="7958" spans="1:2">
@@ -64079,7 +64079,7 @@
         <v>7967</v>
       </c>
       <c r="B7967">
-        <v>8.420282625986845</v>
+        <v>8.420282625986843</v>
       </c>
     </row>
     <row r="7968" spans="1:2">
@@ -64119,7 +64119,7 @@
         <v>7972</v>
       </c>
       <c r="B7972">
-        <v>46.03237497149885</v>
+        <v>46.03237497149884</v>
       </c>
     </row>
     <row r="7973" spans="1:2">
@@ -64135,7 +64135,7 @@
         <v>7974</v>
       </c>
       <c r="B7974">
-        <v>68.98833635880337</v>
+        <v>68.98833635880335</v>
       </c>
     </row>
     <row r="7975" spans="1:2">
@@ -64503,7 +64503,7 @@
         <v>8020</v>
       </c>
       <c r="B8020">
-        <v>4.18953841897553</v>
+        <v>4.189538418975529</v>
       </c>
     </row>
     <row r="8021" spans="1:2">
@@ -64711,7 +64711,7 @@
         <v>8046</v>
       </c>
       <c r="B8046">
-        <v>80.70443727136796</v>
+        <v>80.70443727136795</v>
       </c>
     </row>
     <row r="8047" spans="1:2">
@@ -64943,7 +64943,7 @@
         <v>8075</v>
       </c>
       <c r="B8075">
-        <v>47.4285653996815</v>
+        <v>47.42856539968149</v>
       </c>
     </row>
     <row r="8076" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>4.513323302488584</v>
+        <v>4.513323302488583</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -65351,7 +65351,7 @@
         <v>8126</v>
       </c>
       <c r="B8126">
-        <v>0.9515694247191354</v>
+        <v>0.9515694247191352</v>
       </c>
     </row>
     <row r="8127" spans="1:2">
@@ -65359,7 +65359,7 @@
         <v>8127</v>
       </c>
       <c r="B8127">
-        <v>0.5851720121847216</v>
+        <v>0.5851720121847215</v>
       </c>
     </row>
     <row r="8128" spans="1:2">
@@ -65511,7 +65511,7 @@
         <v>8146</v>
       </c>
       <c r="B8146">
-        <v>4.144581321644879</v>
+        <v>4.144581321644878</v>
       </c>
     </row>
     <row r="8147" spans="1:2">
@@ -65535,7 +65535,7 @@
         <v>8149</v>
       </c>
       <c r="B8149">
-        <v>0.8966068821285867</v>
+        <v>0.8966068821285866</v>
       </c>
     </row>
     <row r="8150" spans="1:2">
@@ -65543,7 +65543,7 @@
         <v>8150</v>
       </c>
       <c r="B8150">
-        <v>0.7111104989182748</v>
+        <v>0.7111104989182747</v>
       </c>
     </row>
     <row r="8151" spans="1:2">
@@ -65679,7 +65679,7 @@
         <v>8167</v>
       </c>
       <c r="B8167">
-        <v>58.63325734978205</v>
+        <v>58.63325734978204</v>
       </c>
     </row>
     <row r="8168" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>1.062057206294463</v>
+        <v>1.062057206294462</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>0.7896125073341028</v>
+        <v>0.7896125073341027</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65991,7 +65991,7 @@
         <v>8206</v>
       </c>
       <c r="B8206">
-        <v>5.5680566635269</v>
+        <v>5.568056663526899</v>
       </c>
     </row>
     <row r="8207" spans="1:2">
@@ -66055,7 +66055,7 @@
         <v>8214</v>
       </c>
       <c r="B8214">
-        <v>32.95525215539096</v>
+        <v>32.95525215539095</v>
       </c>
     </row>
     <row r="8215" spans="1:2">
@@ -66111,7 +66111,7 @@
         <v>8221</v>
       </c>
       <c r="B8221">
-        <v>4.09681074234308</v>
+        <v>4.096810742343079</v>
       </c>
     </row>
     <row r="8222" spans="1:2">
@@ -66175,7 +66175,7 @@
         <v>8229</v>
       </c>
       <c r="B8229">
-        <v>61.63430478567423</v>
+        <v>61.63430478567422</v>
       </c>
     </row>
     <row r="8230" spans="1:2">
@@ -66199,7 +66199,7 @@
         <v>8232</v>
       </c>
       <c r="B8232">
-        <v>79.34195001263137</v>
+        <v>79.34195001263136</v>
       </c>
     </row>
     <row r="8233" spans="1:2">
@@ -66223,7 +66223,7 @@
         <v>8235</v>
       </c>
       <c r="B8235">
-        <v>90.14865149222982</v>
+        <v>90.1486514922298</v>
       </c>
     </row>
     <row r="8236" spans="1:2">
@@ -66359,7 +66359,7 @@
         <v>8252</v>
       </c>
       <c r="B8252">
-        <v>0.8220496098931405</v>
+        <v>0.8220496098931404</v>
       </c>
     </row>
     <row r="8253" spans="1:2">
@@ -66503,7 +66503,7 @@
         <v>8270</v>
       </c>
       <c r="B8270">
-        <v>19.09668472179646</v>
+        <v>19.09668472179645</v>
       </c>
     </row>
     <row r="8271" spans="1:2">
@@ -66559,7 +66559,7 @@
         <v>8277</v>
       </c>
       <c r="B8277">
-        <v>6.97500279882842</v>
+        <v>6.975002798828419</v>
       </c>
     </row>
     <row r="8278" spans="1:2">
@@ -66575,7 +66575,7 @@
         <v>8279</v>
       </c>
       <c r="B8279">
-        <v>26.48143013977731</v>
+        <v>26.4814301397773</v>
       </c>
     </row>
     <row r="8280" spans="1:2">
@@ -66607,7 +66607,7 @@
         <v>8283</v>
       </c>
       <c r="B8283">
-        <v>62.8089335086289</v>
+        <v>62.80893350862889</v>
       </c>
     </row>
     <row r="8284" spans="1:2">
@@ -66671,7 +66671,7 @@
         <v>8291</v>
       </c>
       <c r="B8291">
-        <v>88.00864676792467</v>
+        <v>88.00864676792466</v>
       </c>
     </row>
     <row r="8292" spans="1:2">
@@ -66679,7 +66679,7 @@
         <v>8292</v>
       </c>
       <c r="B8292">
-        <v>72.83254917292423</v>
+        <v>72.83254917292422</v>
       </c>
     </row>
     <row r="8293" spans="1:2">
@@ -66743,7 +66743,7 @@
         <v>8300</v>
       </c>
       <c r="B8300">
-        <v>0.7911130310520489</v>
+        <v>0.7911130310520488</v>
       </c>
     </row>
     <row r="8301" spans="1:2">
@@ -66823,7 +66823,7 @@
         <v>8310</v>
       </c>
       <c r="B8310">
-        <v>45.22203354960023</v>
+        <v>45.22203354960022</v>
       </c>
     </row>
     <row r="8311" spans="1:2">
@@ -66863,7 +66863,7 @@
         <v>8315</v>
       </c>
       <c r="B8315">
-        <v>91.04603501261086</v>
+        <v>91.04603501261084</v>
       </c>
     </row>
     <row r="8316" spans="1:2">
@@ -66879,7 +66879,7 @@
         <v>8317</v>
       </c>
       <c r="B8317">
-        <v>81.58599495566129</v>
+        <v>81.58599495566128</v>
       </c>
     </row>
     <row r="8318" spans="1:2">
@@ -67023,7 +67023,7 @@
         <v>8335</v>
       </c>
       <c r="B8335">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8336" spans="1:2">
@@ -67263,7 +67263,7 @@
         <v>8365</v>
       </c>
       <c r="B8365">
-        <v>9.489816074477558</v>
+        <v>9.489816074477556</v>
       </c>
     </row>
     <row r="8366" spans="1:2">
@@ -67319,7 +67319,7 @@
         <v>8372</v>
       </c>
       <c r="B8372">
-        <v>59.46118303400035</v>
+        <v>59.46118303400034</v>
       </c>
     </row>
     <row r="8373" spans="1:2">
@@ -67327,7 +67327,7 @@
         <v>8373</v>
       </c>
       <c r="B8373">
-        <v>68.76911922188468</v>
+        <v>68.76911922188467</v>
       </c>
     </row>
     <row r="8374" spans="1:2">
@@ -67359,7 +67359,7 @@
         <v>8377</v>
       </c>
       <c r="B8377">
-        <v>83.7186729039999</v>
+        <v>83.71867290399989</v>
       </c>
     </row>
     <row r="8378" spans="1:2">
@@ -67399,7 +67399,7 @@
         <v>8382</v>
       </c>
       <c r="B8382">
-        <v>87.66751207892287</v>
+        <v>87.66751207892285</v>
       </c>
     </row>
     <row r="8383" spans="1:2">
@@ -67559,7 +67559,7 @@
         <v>8402</v>
       </c>
       <c r="B8402">
-        <v>72.62329645132003</v>
+        <v>72.62329645132002</v>
       </c>
     </row>
     <row r="8403" spans="1:2">
@@ -67567,7 +67567,7 @@
         <v>8403</v>
       </c>
       <c r="B8403">
-        <v>76.32771437999943</v>
+        <v>76.32771437999942</v>
       </c>
     </row>
     <row r="8404" spans="1:2">
@@ -67575,7 +67575,7 @@
         <v>8404</v>
       </c>
       <c r="B8404">
-        <v>74.7638873177025</v>
+        <v>74.76388731770248</v>
       </c>
     </row>
     <row r="8405" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>16.89047524985772</v>
+        <v>16.89047524985771</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67767,7 +67767,7 @@
         <v>8428</v>
       </c>
       <c r="B8428">
-        <v>66.24167458446924</v>
+        <v>66.24167458446922</v>
       </c>
     </row>
     <row r="8429" spans="1:2">
@@ -67799,7 +67799,7 @@
         <v>8432</v>
       </c>
       <c r="B8432">
-        <v>218.553624087157</v>
+        <v>218.5536240871569</v>
       </c>
     </row>
     <row r="8433" spans="1:2">
@@ -67967,7 +67967,7 @@
         <v>8453</v>
       </c>
       <c r="B8453">
-        <v>55.34412108288577</v>
+        <v>55.34412108288576</v>
       </c>
     </row>
     <row r="8454" spans="1:2">
@@ -67983,7 +67983,7 @@
         <v>8455</v>
       </c>
       <c r="B8455">
-        <v>319.4474321408664</v>
+        <v>319.4474321408663</v>
       </c>
     </row>
     <row r="8456" spans="1:2">
@@ -68111,7 +68111,7 @@
         <v>8471</v>
       </c>
       <c r="B8471">
-        <v>0.684376558771587</v>
+        <v>0.6843765587715869</v>
       </c>
     </row>
     <row r="8472" spans="1:2">
@@ -68119,7 +68119,7 @@
         <v>8472</v>
       </c>
       <c r="B8472">
-        <v>3.603073963510312</v>
+        <v>3.603073963510311</v>
       </c>
     </row>
     <row r="8473" spans="1:2">
@@ -68199,7 +68199,7 @@
         <v>8482</v>
       </c>
       <c r="B8482">
-        <v>50.34550144747787</v>
+        <v>50.34550144747786</v>
       </c>
     </row>
     <row r="8483" spans="1:2">
@@ -68279,7 +68279,7 @@
         <v>8492</v>
       </c>
       <c r="B8492">
-        <v>0.5760106115161679</v>
+        <v>0.5760106115161678</v>
       </c>
     </row>
     <row r="8493" spans="1:2">
@@ -68583,7 +68583,7 @@
         <v>8530</v>
       </c>
       <c r="B8530">
-        <v>0.3375885294340037</v>
+        <v>0.3375885294340036</v>
       </c>
     </row>
     <row r="8531" spans="1:2">
@@ -68743,7 +68743,7 @@
         <v>8550</v>
       </c>
       <c r="B8550">
-        <v>144.3981522457155</v>
+        <v>144.3981522457154</v>
       </c>
     </row>
     <row r="8551" spans="1:2">
@@ -68783,7 +68783,7 @@
         <v>8555</v>
       </c>
       <c r="B8555">
-        <v>124.3898993652668</v>
+        <v>124.3898993652667</v>
       </c>
     </row>
     <row r="8556" spans="1:2">
@@ -68823,7 +68823,7 @@
         <v>8560</v>
       </c>
       <c r="B8560">
-        <v>118.0712877717282</v>
+        <v>118.0712877717281</v>
       </c>
     </row>
     <row r="8561" spans="1:2">
@@ -68959,7 +68959,7 @@
         <v>8577</v>
       </c>
       <c r="B8577">
-        <v>235.6074278268607</v>
+        <v>235.6074278268606</v>
       </c>
     </row>
     <row r="8578" spans="1:2">
@@ -69063,7 +69063,7 @@
         <v>8590</v>
       </c>
       <c r="B8590">
-        <v>59.32373271686818</v>
+        <v>59.32373271686817</v>
       </c>
     </row>
     <row r="8591" spans="1:2">
@@ -69087,7 +69087,7 @@
         <v>8593</v>
       </c>
       <c r="B8593">
-        <v>25.42619855797327</v>
+        <v>25.42619855797326</v>
       </c>
     </row>
     <row r="8594" spans="1:2">
@@ -69151,7 +69151,7 @@
         <v>8601</v>
       </c>
       <c r="B8601">
-        <v>28.88505226335833</v>
+        <v>28.88505226335832</v>
       </c>
     </row>
     <row r="8602" spans="1:2">
@@ -69503,7 +69503,7 @@
         <v>8645</v>
       </c>
       <c r="B8645">
-        <v>140.901521683447</v>
+        <v>140.9015216834469</v>
       </c>
     </row>
     <row r="8646" spans="1:2">
@@ -69639,7 +69639,7 @@
         <v>8662</v>
       </c>
       <c r="B8662">
-        <v>33.18208913931484</v>
+        <v>33.18208913931483</v>
       </c>
     </row>
     <row r="8663" spans="1:2">
@@ -69703,7 +69703,7 @@
         <v>8670</v>
       </c>
       <c r="B8670">
-        <v>78.02195805450067</v>
+        <v>78.02195805450066</v>
       </c>
     </row>
     <row r="8671" spans="1:2">
@@ -69783,7 +69783,7 @@
         <v>8680</v>
       </c>
       <c r="B8680">
-        <v>80.7428295774326</v>
+        <v>80.74282957743259</v>
       </c>
     </row>
     <row r="8681" spans="1:2">
@@ -69855,7 +69855,7 @@
         <v>8689</v>
       </c>
       <c r="B8689">
-        <v>42.41206843091525</v>
+        <v>42.41206843091524</v>
       </c>
     </row>
     <row r="8690" spans="1:2">
@@ -69863,7 +69863,7 @@
         <v>8690</v>
       </c>
       <c r="B8690">
-        <v>52.34805585465084</v>
+        <v>52.34805585465083</v>
       </c>
     </row>
     <row r="8691" spans="1:2">
@@ -69887,7 +69887,7 @@
         <v>8693</v>
       </c>
       <c r="B8693">
-        <v>66.45092730607344</v>
+        <v>66.45092730607342</v>
       </c>
     </row>
     <row r="8694" spans="1:2">
@@ -69927,7 +69927,7 @@
         <v>8698</v>
       </c>
       <c r="B8698">
-        <v>71.71389701835388</v>
+        <v>71.71389701835386</v>
       </c>
     </row>
     <row r="8699" spans="1:2">
@@ -69935,7 +69935,7 @@
         <v>8699</v>
       </c>
       <c r="B8699">
-        <v>67.56635567921852</v>
+        <v>67.5663556792185</v>
       </c>
     </row>
     <row r="8700" spans="1:2">
@@ -69983,7 +69983,7 @@
         <v>8705</v>
       </c>
       <c r="B8705">
-        <v>69.7189624581861</v>
+        <v>69.71896245818608</v>
       </c>
     </row>
     <row r="8706" spans="1:2">
@@ -70007,7 +70007,7 @@
         <v>8708</v>
       </c>
       <c r="B8708">
-        <v>83.09413852061257</v>
+        <v>83.09413852061256</v>
       </c>
     </row>
     <row r="8709" spans="1:2">
@@ -70015,7 +70015,7 @@
         <v>8709</v>
       </c>
       <c r="B8709">
-        <v>84.9870843593262</v>
+        <v>84.98708435932619</v>
       </c>
     </row>
     <row r="8710" spans="1:2">
@@ -70039,7 +70039,7 @@
         <v>8712</v>
       </c>
       <c r="B8712">
-        <v>91.73826880592895</v>
+        <v>91.73826880592894</v>
       </c>
     </row>
     <row r="8713" spans="1:2">
@@ -70159,7 +70159,7 @@
         <v>8727</v>
       </c>
       <c r="B8727">
-        <v>75.74743372344997</v>
+        <v>75.74743372344996</v>
       </c>
     </row>
     <row r="8728" spans="1:2">
@@ -70335,7 +70335,7 @@
         <v>8749</v>
       </c>
       <c r="B8749">
-        <v>174.7661732718041</v>
+        <v>174.766173271804</v>
       </c>
     </row>
     <row r="8750" spans="1:2">
@@ -70367,7 +70367,7 @@
         <v>8753</v>
       </c>
       <c r="B8753">
-        <v>150.8366298940666</v>
+        <v>150.8366298940665</v>
       </c>
     </row>
     <row r="8754" spans="1:2">
